--- a/data_tools/input/data.xlsx
+++ b/data_tools/input/data.xlsx
@@ -17,7 +17,7 @@
     <sheet name="local_lookup" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">local_lookup!$A$1:$O$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">local_lookup!$A$1:$T$140</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="357">
   <si>
     <t>facility</t>
   </si>
@@ -1085,6 +1085,24 @@
   </si>
   <si>
     <t>Physical Therapists</t>
+  </si>
+  <si>
+    <t>national_nurse</t>
+  </si>
+  <si>
+    <t>national_scheduler_clinic_workflow</t>
+  </si>
+  <si>
+    <t>national_physical_therapist</t>
+  </si>
+  <si>
+    <t>national_physician</t>
+  </si>
+  <si>
+    <t>national_physician_assistant</t>
+  </si>
+  <si>
+    <t>national_psychology</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1166,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1168,6 +1186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1752,10 +1771,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O140"/>
+  <dimension ref="A1:T140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1768,14 +1787,17 @@
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="25.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="3"/>
-    <col min="11" max="11" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="3"/>
-    <col min="13" max="13" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="3"/>
+    <col min="10" max="10" width="25.140625" style="3" customWidth="1"/>
+    <col min="11" max="12" width="8.85546875" style="3"/>
+    <col min="13" max="13" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" style="3" customWidth="1"/>
+    <col min="15" max="16" width="8.85546875" style="3"/>
+    <col min="17" max="17" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" style="3" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1803,23 +1825,41 @@
       <c r="I1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="N1" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="P1" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="R1" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="S1" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="T1" s="17" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1848,23 +1888,40 @@
         <v>30.4</v>
       </c>
       <c r="J2" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K2" s="3">
         <v>23.5</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M2" s="3">
         <v>25</v>
       </c>
-      <c r="L2" s="3">
+      <c r="N2" s="3">
+        <v>15</v>
+      </c>
+      <c r="O2" s="3">
         <v>25.1</v>
       </c>
-      <c r="M2" s="3">
+      <c r="P2" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="3">
         <v>33.300000000000004</v>
       </c>
-      <c r="N2" s="3">
-        <v>16.3</v>
-      </c>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R2" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S2" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="T2" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1893,22 +1950,40 @@
         <v>17.899999999999999</v>
       </c>
       <c r="J3" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K3" s="3">
         <v>28.999999999999996</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M3" s="3">
         <v>40</v>
       </c>
-      <c r="L3" s="3">
+      <c r="N3" s="3">
+        <v>15</v>
+      </c>
+      <c r="O3" s="3">
         <v>36.1</v>
       </c>
-      <c r="M3" s="3">
+      <c r="P3" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="3">
         <v>75</v>
       </c>
-      <c r="N3" s="3">
+      <c r="R3" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S3" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="T3" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>267</v>
       </c>
@@ -1937,19 +2012,37 @@
         <v>28.000000000000004</v>
       </c>
       <c r="J4" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K4" s="3">
         <v>22.8</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M4" s="3">
         <v>0</v>
       </c>
-      <c r="L4" s="3">
+      <c r="N4" s="3">
+        <v>15</v>
+      </c>
+      <c r="O4" s="3">
         <v>11.600000000000001</v>
       </c>
-      <c r="N4" s="3">
+      <c r="P4" s="3">
+        <v>18</v>
+      </c>
+      <c r="R4" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S4" s="3">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="T4" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1978,22 +2071,40 @@
         <v>22.8</v>
       </c>
       <c r="J5" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K5" s="3">
         <v>23.7</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M5" s="3">
         <v>0</v>
       </c>
-      <c r="L5" s="3">
+      <c r="N5" s="3">
+        <v>15</v>
+      </c>
+      <c r="O5" s="3">
         <v>33.300000000000004</v>
       </c>
-      <c r="M5" s="3">
+      <c r="P5" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="3">
         <v>57.099999999999994</v>
       </c>
-      <c r="N5" s="3">
+      <c r="R5" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S5" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="T5" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>193</v>
       </c>
@@ -2022,22 +2133,40 @@
         <v>20.8</v>
       </c>
       <c r="J6" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K6" s="3">
         <v>12.4</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M6" s="3">
         <v>60</v>
       </c>
-      <c r="L6" s="3">
+      <c r="N6" s="3">
+        <v>15</v>
+      </c>
+      <c r="O6" s="3">
         <v>29.599999999999998</v>
       </c>
-      <c r="M6" s="3">
+      <c r="P6" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="3">
         <v>14.299999999999999</v>
       </c>
-      <c r="N6" s="3">
+      <c r="R6" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S6" s="3">
         <v>26.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="T6" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>211</v>
       </c>
@@ -2066,22 +2195,40 @@
         <v>37</v>
       </c>
       <c r="J7" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K7" s="3">
         <v>24.099999999999998</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M7" s="3">
         <v>17.399999999999999</v>
       </c>
-      <c r="L7" s="3">
+      <c r="N7" s="3">
+        <v>15</v>
+      </c>
+      <c r="O7" s="3">
         <v>12</v>
       </c>
-      <c r="M7" s="3">
+      <c r="P7" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="3">
         <v>20</v>
       </c>
-      <c r="N7" s="3">
+      <c r="R7" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S7" s="3">
         <v>34.200000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="T7" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -2110,22 +2257,40 @@
         <v>16.400000000000002</v>
       </c>
       <c r="J8" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K8" s="3">
         <v>14.499999999999998</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M8" s="3">
         <v>18.8</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
+        <v>15</v>
+      </c>
+      <c r="O8" s="3">
         <v>20</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="3">
         <v>33.300000000000004</v>
       </c>
-      <c r="N8" s="3">
+      <c r="R8" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S8" s="3">
         <v>23.799999999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="T8" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -2154,22 +2319,40 @@
         <v>15.5</v>
       </c>
       <c r="J9" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K9" s="3">
         <v>14.099999999999998</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M9" s="3">
         <v>6.9</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
+        <v>15</v>
+      </c>
+      <c r="O9" s="3">
         <v>21.5</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
+      <c r="R9" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S9" s="3">
         <v>24.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="T9" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>132</v>
       </c>
@@ -2198,22 +2381,40 @@
         <v>9</v>
       </c>
       <c r="J10" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K10" s="3">
         <v>11.5</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
+        <v>15</v>
+      </c>
+      <c r="O10" s="3">
         <v>24.099999999999998</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="3">
         <v>21.4</v>
       </c>
-      <c r="N10" s="3">
+      <c r="R10" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S10" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="T10" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -2242,22 +2443,40 @@
         <v>24.7</v>
       </c>
       <c r="J11" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K11" s="3">
         <v>16.8</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M11" s="3">
         <v>50</v>
       </c>
-      <c r="L11" s="3">
+      <c r="N11" s="3">
+        <v>15</v>
+      </c>
+      <c r="O11" s="3">
         <v>19.400000000000002</v>
       </c>
-      <c r="M11" s="3">
+      <c r="P11" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="3">
         <v>55.600000000000009</v>
       </c>
-      <c r="N11" s="3">
+      <c r="R11" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S11" s="3">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="T11" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -2286,22 +2505,40 @@
         <v>25.2</v>
       </c>
       <c r="J12" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K12" s="3">
         <v>22.400000000000002</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M12" s="3">
         <v>8.7999999999999989</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
+        <v>15</v>
+      </c>
+      <c r="O12" s="3">
         <v>16.900000000000002</v>
       </c>
-      <c r="M12" s="3">
+      <c r="P12" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="3">
         <v>18.899999999999999</v>
       </c>
-      <c r="N12" s="3">
+      <c r="R12" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S12" s="3">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="T12" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>155</v>
       </c>
@@ -2330,22 +2567,40 @@
         <v>18.5</v>
       </c>
       <c r="J13" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K13" s="3">
         <v>21.6</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M13" s="3">
         <v>13.3</v>
       </c>
-      <c r="L13" s="3">
+      <c r="N13" s="3">
+        <v>15</v>
+      </c>
+      <c r="O13" s="3">
         <v>25.2</v>
       </c>
-      <c r="M13" s="3">
+      <c r="P13" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="3">
         <v>25</v>
       </c>
-      <c r="N13" s="3">
+      <c r="R13" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S13" s="3">
         <v>47.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="T13" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2374,22 +2629,40 @@
         <v>39.5</v>
       </c>
       <c r="J14" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K14" s="3">
         <v>27.900000000000002</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M14" s="3">
         <v>25</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
+        <v>15</v>
+      </c>
+      <c r="O14" s="3">
         <v>27.400000000000002</v>
       </c>
-      <c r="M14" s="3">
+      <c r="P14" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="3">
         <v>50</v>
       </c>
-      <c r="N14" s="3">
+      <c r="R14" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S14" s="3">
         <v>42.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="T14" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>195</v>
       </c>
@@ -2418,22 +2691,40 @@
         <v>9.9</v>
       </c>
       <c r="J15" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K15" s="3">
         <v>24.3</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M15" s="3">
         <v>9.7000000000000011</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
+        <v>15</v>
+      </c>
+      <c r="O15" s="3">
         <v>12.5</v>
       </c>
-      <c r="M15" s="3">
+      <c r="P15" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="3">
         <v>30.8</v>
       </c>
-      <c r="N15" s="3">
-        <v>20.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R15" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S15" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="T15" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>207</v>
       </c>
@@ -2462,22 +2753,40 @@
         <v>15.2</v>
       </c>
       <c r="J16" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K16" s="3">
         <v>21.8</v>
       </c>
-      <c r="K16" s="3">
-        <v>18</v>
-      </c>
       <c r="L16" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M16" s="3">
+        <v>18</v>
+      </c>
+      <c r="N16" s="3">
+        <v>15</v>
+      </c>
+      <c r="O16" s="3">
         <v>7.1</v>
       </c>
-      <c r="M16" s="3">
+      <c r="P16" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="3">
         <v>14.299999999999999</v>
       </c>
-      <c r="N16" s="3">
+      <c r="R16" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S16" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T16" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>233</v>
       </c>
@@ -2506,22 +2815,40 @@
         <v>24.3</v>
       </c>
       <c r="J17" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K17" s="3">
         <v>11.600000000000001</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M17" s="3">
         <v>0</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
+        <v>15</v>
+      </c>
+      <c r="O17" s="3">
         <v>11.700000000000001</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="3">
         <v>33.300000000000004</v>
       </c>
-      <c r="N17" s="3">
+      <c r="R17" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S17" s="3">
         <v>11.799999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T17" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>235</v>
       </c>
@@ -2550,22 +2877,40 @@
         <v>35.9</v>
       </c>
       <c r="J18" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K18" s="3">
         <v>17.5</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M18" s="3">
         <v>14.299999999999999</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
+        <v>15</v>
+      </c>
+      <c r="O18" s="3">
         <v>7.8</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="3">
         <v>45.5</v>
       </c>
-      <c r="N18" s="3">
+      <c r="R18" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S18" s="3">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T18" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>114</v>
       </c>
@@ -2594,22 +2939,40 @@
         <v>26</v>
       </c>
       <c r="J19" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K19" s="3">
         <v>20.7</v>
       </c>
-      <c r="K19" s="3">
+      <c r="L19" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M19" s="3">
         <v>25</v>
       </c>
-      <c r="L19" s="3">
+      <c r="N19" s="3">
+        <v>15</v>
+      </c>
+      <c r="O19" s="3">
         <v>19.400000000000002</v>
       </c>
-      <c r="M19" s="3">
+      <c r="P19" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="3">
         <v>26.700000000000003</v>
       </c>
-      <c r="N19" s="3">
+      <c r="R19" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S19" s="3">
         <v>24.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T19" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>124</v>
       </c>
@@ -2638,22 +3001,40 @@
         <v>22.400000000000002</v>
       </c>
       <c r="J20" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K20" s="3">
         <v>12.7</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M20" s="3">
         <v>16.7</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
+        <v>15</v>
+      </c>
+      <c r="O20" s="3">
         <v>47.4</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="3">
         <v>41.699999999999996</v>
       </c>
-      <c r="N20" s="3">
+      <c r="R20" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S20" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T20" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>275</v>
       </c>
@@ -2682,22 +3063,40 @@
         <v>20.3</v>
       </c>
       <c r="J21" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K21" s="3">
         <v>8.2000000000000011</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M21" s="3">
         <v>9.5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
+        <v>15</v>
+      </c>
+      <c r="O21" s="3">
         <v>17.2</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="3">
         <v>10</v>
       </c>
-      <c r="N21" s="3">
+      <c r="R21" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S21" s="3">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T21" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>279</v>
       </c>
@@ -2726,22 +3125,40 @@
         <v>32.4</v>
       </c>
       <c r="J22" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K22" s="3">
         <v>10.7</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M22" s="3">
         <v>21.099999999999998</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
+        <v>15</v>
+      </c>
+      <c r="O22" s="3">
         <v>13.3</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="3">
         <v>12.2</v>
       </c>
-      <c r="N22" s="3">
+      <c r="R22" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S22" s="3">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T22" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>291</v>
       </c>
@@ -2770,19 +3187,37 @@
         <v>20</v>
       </c>
       <c r="J23" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K23" s="3">
         <v>15.5</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M23" s="3">
         <v>16.7</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
+        <v>15</v>
+      </c>
+      <c r="O23" s="3">
         <v>18.5</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
+        <v>18</v>
+      </c>
+      <c r="R23" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S23" s="3">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T23" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -2811,22 +3246,40 @@
         <v>17.7</v>
       </c>
       <c r="J24" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K24" s="3">
         <v>12.1</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M24" s="3">
         <v>11.1</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
+        <v>15</v>
+      </c>
+      <c r="O24" s="3">
         <v>12.6</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q24" s="3">
         <v>9.1</v>
       </c>
-      <c r="N24" s="3">
+      <c r="R24" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S24" s="3">
         <v>16.900000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T24" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>169</v>
       </c>
@@ -2855,22 +3308,40 @@
         <v>11.600000000000001</v>
       </c>
       <c r="J25" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K25" s="3">
         <v>11.899999999999999</v>
       </c>
-      <c r="K25" s="3">
+      <c r="L25" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M25" s="3">
         <v>3.2</v>
       </c>
-      <c r="L25" s="3">
+      <c r="N25" s="3">
+        <v>15</v>
+      </c>
+      <c r="O25" s="3">
         <v>11.799999999999999</v>
       </c>
-      <c r="M25" s="3">
+      <c r="P25" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q25" s="3">
         <v>6.3</v>
       </c>
-      <c r="N25" s="3">
+      <c r="R25" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S25" s="3">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T25" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>189</v>
       </c>
@@ -2899,22 +3370,40 @@
         <v>28.4</v>
       </c>
       <c r="J26" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K26" s="3">
         <v>17.7</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M26" s="3">
         <v>12.8</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
+        <v>15</v>
+      </c>
+      <c r="O26" s="3">
         <v>11.600000000000001</v>
       </c>
-      <c r="M26" s="3">
-        <v>18</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>18</v>
+      </c>
+      <c r="R26" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S26" s="3">
         <v>34.599999999999994</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T26" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>203</v>
       </c>
@@ -2943,22 +3432,40 @@
         <v>23</v>
       </c>
       <c r="J27" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K27" s="3">
         <v>30.5</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M27" s="3">
         <v>35.699999999999996</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
+        <v>15</v>
+      </c>
+      <c r="O27" s="3">
         <v>36.700000000000003</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="3">
         <v>27</v>
       </c>
-      <c r="N27" s="3">
+      <c r="R27" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S27" s="3">
         <v>26.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T27" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>259</v>
       </c>
@@ -2987,22 +3494,40 @@
         <v>12.9</v>
       </c>
       <c r="J28" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K28" s="3">
         <v>14.499999999999998</v>
       </c>
-      <c r="K28" s="3">
-        <v>16.3</v>
-      </c>
       <c r="L28" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M28" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="N28" s="3">
+        <v>15</v>
+      </c>
+      <c r="O28" s="3">
         <v>12.6</v>
       </c>
-      <c r="M28" s="3">
+      <c r="P28" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q28" s="3">
         <v>16</v>
       </c>
-      <c r="N28" s="3">
+      <c r="R28" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S28" s="3">
         <v>22.400000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T28" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>281</v>
       </c>
@@ -3031,22 +3556,40 @@
         <v>22.2</v>
       </c>
       <c r="J29" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K29" s="3">
         <v>12.1</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
+        <v>15</v>
+      </c>
+      <c r="O29" s="3">
         <v>13.3</v>
       </c>
-      <c r="M29" s="3">
+      <c r="P29" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q29" s="3">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="R29" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S29" s="3">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T29" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -3075,22 +3618,40 @@
         <v>33</v>
       </c>
       <c r="J30" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K30" s="3">
         <v>26.8</v>
       </c>
-      <c r="K30" s="3">
+      <c r="L30" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M30" s="3">
         <v>8.6999999999999993</v>
       </c>
-      <c r="L30" s="3">
+      <c r="N30" s="3">
+        <v>15</v>
+      </c>
+      <c r="O30" s="3">
         <v>15.7</v>
       </c>
-      <c r="M30" s="3">
+      <c r="P30" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q30" s="3">
         <v>26.200000000000003</v>
       </c>
-      <c r="N30" s="3">
+      <c r="R30" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S30" s="3">
         <v>13.600000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T30" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -3119,22 +3680,40 @@
         <v>34.799999999999997</v>
       </c>
       <c r="J31" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K31" s="3">
         <v>22.400000000000002</v>
       </c>
-      <c r="K31" s="3">
+      <c r="L31" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M31" s="3">
         <v>17.899999999999999</v>
       </c>
-      <c r="L31" s="3">
+      <c r="N31" s="3">
+        <v>15</v>
+      </c>
+      <c r="O31" s="3">
         <v>23.7</v>
       </c>
-      <c r="M31" s="3">
+      <c r="P31" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q31" s="3">
         <v>26.900000000000002</v>
       </c>
-      <c r="N31" s="3">
+      <c r="R31" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S31" s="3">
         <v>24.4</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T31" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -3163,22 +3742,40 @@
         <v>31.3</v>
       </c>
       <c r="J32" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K32" s="3">
         <v>10.7</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M32" s="3">
         <v>33.300000000000004</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
+        <v>15</v>
+      </c>
+      <c r="O32" s="3">
         <v>30.9</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q32" s="3">
         <v>42.9</v>
       </c>
-      <c r="N32" s="3">
-        <v>20.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R32" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S32" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="T32" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>205</v>
       </c>
@@ -3207,19 +3804,37 @@
         <v>32.800000000000004</v>
       </c>
       <c r="J33" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K33" s="3">
         <v>30.4</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M33" s="3">
         <v>42.9</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
+        <v>15</v>
+      </c>
+      <c r="O33" s="3">
         <v>27.400000000000002</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
+        <v>18</v>
+      </c>
+      <c r="R33" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S33" s="3">
         <v>34.799999999999997</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T33" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -3248,22 +3863,40 @@
         <v>11</v>
       </c>
       <c r="J34" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K34" s="3">
         <v>6</v>
       </c>
-      <c r="K34" s="3">
+      <c r="L34" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M34" s="3">
         <v>7.7</v>
       </c>
-      <c r="L34" s="3">
+      <c r="N34" s="3">
+        <v>15</v>
+      </c>
+      <c r="O34" s="3">
         <v>12.6</v>
       </c>
-      <c r="M34" s="3">
+      <c r="P34" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="3">
         <v>5.8999999999999995</v>
       </c>
-      <c r="N34" s="3">
+      <c r="R34" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S34" s="3">
         <v>13.600000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T34" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -3292,22 +3925,40 @@
         <v>9.4</v>
       </c>
       <c r="J35" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K35" s="3">
         <v>7.9</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M35" s="3">
         <v>0</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
+        <v>15</v>
+      </c>
+      <c r="O35" s="3">
         <v>2.6</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q35" s="3">
         <v>10</v>
       </c>
-      <c r="N35" s="3">
+      <c r="R35" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S35" s="3">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T35" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -3336,22 +3987,40 @@
         <v>13.3</v>
       </c>
       <c r="J36" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K36" s="3">
         <v>9.6</v>
       </c>
-      <c r="K36" s="3">
+      <c r="L36" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M36" s="3">
         <v>12.5</v>
       </c>
-      <c r="L36" s="3">
+      <c r="N36" s="3">
+        <v>15</v>
+      </c>
+      <c r="O36" s="3">
         <v>28.199999999999996</v>
       </c>
-      <c r="M36" s="3">
+      <c r="P36" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q36" s="3">
         <v>33.300000000000004</v>
       </c>
-      <c r="N36" s="3">
+      <c r="R36" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S36" s="3">
         <v>22.900000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T36" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>133</v>
       </c>
@@ -3380,22 +4049,40 @@
         <v>25.8</v>
       </c>
       <c r="J37" s="3">
-        <v>18</v>
+        <v>20.8</v>
       </c>
       <c r="K37" s="3">
+        <v>18</v>
+      </c>
+      <c r="L37" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M37" s="3">
         <v>22.2</v>
       </c>
-      <c r="L37" s="3">
+      <c r="N37" s="3">
+        <v>15</v>
+      </c>
+      <c r="O37" s="3">
         <v>14.2</v>
       </c>
-      <c r="M37" s="3">
+      <c r="P37" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q37" s="3">
         <v>12.5</v>
       </c>
-      <c r="N37" s="3">
+      <c r="R37" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S37" s="3">
         <v>14.299999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T37" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -3427,19 +4114,37 @@
         <v>20.8</v>
       </c>
       <c r="K38" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="L38" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M38" s="3">
         <v>18.8</v>
       </c>
-      <c r="L38" s="3">
+      <c r="N38" s="3">
+        <v>15</v>
+      </c>
+      <c r="O38" s="3">
         <v>11.4</v>
       </c>
-      <c r="M38" s="3">
+      <c r="P38" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q38" s="3">
         <v>40</v>
       </c>
-      <c r="N38" s="3">
+      <c r="R38" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S38" s="3">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T38" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>163</v>
       </c>
@@ -3468,22 +4173,40 @@
         <v>12.3</v>
       </c>
       <c r="J39" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K39" s="3">
         <v>8.1</v>
       </c>
-      <c r="K39" s="3">
+      <c r="L39" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M39" s="3">
         <v>12.5</v>
       </c>
-      <c r="L39" s="3">
+      <c r="N39" s="3">
+        <v>15</v>
+      </c>
+      <c r="O39" s="3">
         <v>30.099999999999998</v>
       </c>
-      <c r="M39" s="3">
+      <c r="P39" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q39" s="3">
         <v>0</v>
       </c>
-      <c r="N39" s="3">
+      <c r="R39" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S39" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T39" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>139</v>
       </c>
@@ -3512,22 +4235,40 @@
         <v>17.299999999999997</v>
       </c>
       <c r="J40" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K40" s="3">
         <v>0</v>
       </c>
-      <c r="K40" s="3">
+      <c r="L40" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M40" s="3">
         <v>4.8</v>
       </c>
-      <c r="L40" s="3">
+      <c r="N40" s="3">
+        <v>15</v>
+      </c>
+      <c r="O40" s="3">
         <v>11.200000000000001</v>
       </c>
-      <c r="M40" s="3">
+      <c r="P40" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q40" s="3">
         <v>0</v>
       </c>
-      <c r="N40" s="3">
+      <c r="R40" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S40" s="3">
         <v>5.6000000000000005</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T40" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>197</v>
       </c>
@@ -3556,22 +4297,40 @@
         <v>8.7999999999999989</v>
       </c>
       <c r="J41" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K41" s="3">
         <v>11.4</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
+        <v>15</v>
+      </c>
+      <c r="O41" s="3">
         <v>11.5</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q41" s="3">
         <v>50</v>
       </c>
-      <c r="N41" s="3">
+      <c r="R41" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S41" s="3">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T41" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -3600,22 +4359,40 @@
         <v>7.8</v>
       </c>
       <c r="J42" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K42" s="3">
         <v>9.3000000000000007</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M42" s="3">
         <v>36.4</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
+        <v>15</v>
+      </c>
+      <c r="O42" s="3">
         <v>18.399999999999999</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3">
-        <v>20.8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R42" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S42" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="T42" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>141</v>
       </c>
@@ -3644,22 +4421,40 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="J43" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K43" s="3">
         <v>5</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M43" s="3">
         <v>7.1</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
+        <v>15</v>
+      </c>
+      <c r="O43" s="3">
         <v>5.6000000000000005</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q43" s="3">
         <v>5</v>
       </c>
-      <c r="N43" s="3">
+      <c r="R43" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S43" s="3">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T43" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -3688,22 +4483,40 @@
         <v>2.9000000000000004</v>
       </c>
       <c r="J44" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K44" s="3">
         <v>12.2</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M44" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
+        <v>15</v>
+      </c>
+      <c r="O44" s="3">
         <v>20.200000000000003</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q44" s="3">
         <v>14.299999999999999</v>
       </c>
-      <c r="N44" s="3">
+      <c r="R44" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S44" s="3">
         <v>6.8000000000000007</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T44" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>287</v>
       </c>
@@ -3732,22 +4545,40 @@
         <v>23.1</v>
       </c>
       <c r="J45" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K45" s="3">
         <v>15.8</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M45" s="3">
         <v>33.300000000000004</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
+        <v>15</v>
+      </c>
+      <c r="O45" s="3">
         <v>25.900000000000002</v>
       </c>
-      <c r="M45" s="3">
-        <v>15</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>15</v>
+      </c>
+      <c r="R45" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S45" s="3">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T45" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>153</v>
       </c>
@@ -3776,22 +4607,40 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="J46" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K46" s="3">
         <v>11.200000000000001</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M46" s="3">
         <v>14.299999999999999</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
+        <v>15</v>
+      </c>
+      <c r="O46" s="3">
         <v>9.9</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q46" s="3">
         <v>13.3</v>
       </c>
-      <c r="N46" s="3">
+      <c r="R46" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T46" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>157</v>
       </c>
@@ -3820,22 +4669,40 @@
         <v>17.399999999999999</v>
       </c>
       <c r="J47" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K47" s="3">
         <v>19.100000000000001</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
       <c r="L47" s="3">
-        <v>20.3</v>
+        <v>16.3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>15</v>
+      </c>
+      <c r="O47" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="P47" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S47" s="3">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T47" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -3864,22 +4731,40 @@
         <v>26.400000000000002</v>
       </c>
       <c r="J48" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K48" s="3">
         <v>8.5</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M48" s="3">
         <v>16.7</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
+        <v>15</v>
+      </c>
+      <c r="O48" s="3">
         <v>32.6</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q48" s="3">
         <v>25</v>
       </c>
-      <c r="N48" s="3">
+      <c r="R48" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S48" s="3">
         <v>28.599999999999998</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T48" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>239</v>
       </c>
@@ -3908,22 +4793,40 @@
         <v>15.5</v>
       </c>
       <c r="J49" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K49" s="3">
         <v>16.7</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
       <c r="L49" s="3">
-        <v>19.8</v>
+        <v>16.3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
       <c r="N49" s="3">
+        <v>15</v>
+      </c>
+      <c r="O49" s="3">
+        <v>19.8</v>
+      </c>
+      <c r="P49" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S49" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T49" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -3952,22 +4855,40 @@
         <v>87.1</v>
       </c>
       <c r="J50" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K50" s="3">
         <v>22</v>
       </c>
-      <c r="K50" s="3">
+      <c r="L50" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3">
+      <c r="N50" s="3">
+        <v>15</v>
+      </c>
+      <c r="O50" s="3">
         <v>34.699999999999996</v>
       </c>
-      <c r="M50" s="3">
+      <c r="P50" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q50" s="3">
         <v>66.7</v>
       </c>
-      <c r="N50" s="3">
+      <c r="R50" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T50" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -3996,19 +4917,37 @@
         <v>15.5</v>
       </c>
       <c r="J51" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K51" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="K51" s="3">
+      <c r="L51" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M51" s="3">
         <v>22.2</v>
       </c>
-      <c r="L51" s="3">
+      <c r="N51" s="3">
+        <v>15</v>
+      </c>
+      <c r="O51" s="3">
         <v>7.3</v>
       </c>
-      <c r="N51" s="3">
+      <c r="P51" s="3">
+        <v>18</v>
+      </c>
+      <c r="R51" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S51" s="3">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T51" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>269</v>
       </c>
@@ -4037,22 +4976,40 @@
         <v>20.8</v>
       </c>
       <c r="J52" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K52" s="3">
         <v>12.2</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M52" s="3">
         <v>13.8</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
+        <v>15</v>
+      </c>
+      <c r="O52" s="3">
         <v>11.1</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q52" s="3">
         <v>12.5</v>
       </c>
-      <c r="N52" s="3">
+      <c r="R52" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S52" s="3">
         <v>10.299999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T52" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>273</v>
       </c>
@@ -4081,22 +5038,40 @@
         <v>17.100000000000001</v>
       </c>
       <c r="J53" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K53" s="3">
         <v>18.399999999999999</v>
       </c>
-      <c r="K53" s="3">
+      <c r="L53" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M53" s="3">
         <v>10</v>
       </c>
-      <c r="L53" s="3">
+      <c r="N53" s="3">
+        <v>15</v>
+      </c>
+      <c r="O53" s="3">
         <v>26.200000000000003</v>
       </c>
-      <c r="M53" s="3">
+      <c r="P53" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q53" s="3">
         <v>16.7</v>
       </c>
-      <c r="N53" s="3">
+      <c r="R53" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T53" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>167</v>
       </c>
@@ -4125,22 +5100,40 @@
         <v>42.3</v>
       </c>
       <c r="J54" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K54" s="3">
         <v>20.5</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M54" s="3">
         <v>48</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
+        <v>15</v>
+      </c>
+      <c r="O54" s="3">
         <v>27.1</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q54" s="3">
         <v>38.200000000000003</v>
       </c>
-      <c r="N54" s="3">
+      <c r="R54" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S54" s="3">
         <v>23.400000000000002</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T54" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>23</v>
       </c>
@@ -4169,22 +5162,40 @@
         <v>44.800000000000004</v>
       </c>
       <c r="J55" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K55" s="3">
         <v>28.299999999999997</v>
       </c>
-      <c r="K55" s="3">
+      <c r="L55" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M55" s="3">
         <v>0</v>
       </c>
-      <c r="L55" s="3">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="M55" s="3">
+      <c r="N55" s="3">
+        <v>15</v>
+      </c>
+      <c r="O55" s="3">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="P55" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q55" s="3">
         <v>43.2</v>
       </c>
-      <c r="N55" s="3">
+      <c r="R55" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S55" s="3">
         <v>19.400000000000002</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T55" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -4213,22 +5224,40 @@
         <v>20.100000000000001</v>
       </c>
       <c r="J56" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K56" s="3">
         <v>8.2000000000000011</v>
       </c>
-      <c r="K56" s="3">
+      <c r="L56" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M56" s="3">
         <v>0</v>
       </c>
-      <c r="L56" s="3">
+      <c r="N56" s="3">
+        <v>15</v>
+      </c>
+      <c r="O56" s="3">
         <v>17.8</v>
       </c>
-      <c r="M56" s="3">
+      <c r="P56" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q56" s="3">
         <v>12.5</v>
       </c>
-      <c r="N56" s="3">
+      <c r="R56" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S56" s="3">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T56" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -4257,22 +5286,40 @@
         <v>27.6</v>
       </c>
       <c r="J57" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K57" s="3">
         <v>21</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M57" s="3">
         <v>9.1</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
+        <v>15</v>
+      </c>
+      <c r="O57" s="3">
         <v>29.4</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3">
+      <c r="R57" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S57" s="3">
         <v>30.599999999999998</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T57" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>108</v>
       </c>
@@ -4301,22 +5348,40 @@
         <v>19</v>
       </c>
       <c r="J58" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K58" s="3">
         <v>19.400000000000002</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M58" s="3">
         <v>11.1</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
+        <v>15</v>
+      </c>
+      <c r="O58" s="3">
         <v>24.3</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q58" s="3">
         <v>10</v>
       </c>
-      <c r="N58" s="3">
+      <c r="R58" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S58" s="3">
         <v>17.599999999999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T58" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>143</v>
       </c>
@@ -4345,22 +5410,40 @@
         <v>11.3</v>
       </c>
       <c r="J59" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K59" s="3">
         <v>6.5</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M59" s="3">
         <v>33.300000000000004</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
+        <v>15</v>
+      </c>
+      <c r="O59" s="3">
         <v>12.8</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q59" s="3">
         <v>16.7</v>
       </c>
-      <c r="N59" s="3">
+      <c r="R59" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S59" s="3">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T59" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>225</v>
       </c>
@@ -4389,22 +5472,40 @@
         <v>21.7</v>
       </c>
       <c r="J60" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K60" s="3">
         <v>10.4</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M60" s="3">
         <v>6.3</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
+        <v>15</v>
+      </c>
+      <c r="O60" s="3">
         <v>30</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q60" s="3">
         <v>33.300000000000004</v>
       </c>
-      <c r="N60" s="3">
+      <c r="R60" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S60" s="3">
         <v>33.300000000000004</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T60" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>173</v>
       </c>
@@ -4433,22 +5534,40 @@
         <v>19.600000000000001</v>
       </c>
       <c r="J61" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K61" s="3">
         <v>12.6</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M61" s="3">
         <v>9.5</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
+        <v>15</v>
+      </c>
+      <c r="O61" s="3">
         <v>17.8</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q61" s="3">
         <v>10</v>
       </c>
-      <c r="N61" s="3">
+      <c r="R61" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S61" s="3">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T61" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>253</v>
       </c>
@@ -4477,22 +5596,40 @@
         <v>11.899999999999999</v>
       </c>
       <c r="J62" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K62" s="3">
         <v>11.600000000000001</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
+        <v>15</v>
+      </c>
+      <c r="O62" s="3">
         <v>23.3</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q62" s="3">
         <v>27.3</v>
       </c>
-      <c r="N62" s="3">
+      <c r="R62" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S62" s="3">
         <v>33.300000000000004</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T62" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>128</v>
       </c>
@@ -4521,22 +5658,40 @@
         <v>11.700000000000001</v>
       </c>
       <c r="J63" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K63" s="3">
         <v>8.5</v>
       </c>
-      <c r="K63" s="3">
+      <c r="L63" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M63" s="3">
         <v>7.1</v>
       </c>
-      <c r="L63" s="3">
+      <c r="N63" s="3">
+        <v>15</v>
+      </c>
+      <c r="O63" s="3">
         <v>23.3</v>
       </c>
-      <c r="M63" s="3">
+      <c r="P63" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q63" s="3">
         <v>11.799999999999999</v>
       </c>
-      <c r="N63" s="3">
+      <c r="R63" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S63" s="3">
         <v>1.7000000000000002</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T63" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>145</v>
       </c>
@@ -4565,22 +5720,40 @@
         <v>17</v>
       </c>
       <c r="J64" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K64" s="3">
         <v>19.400000000000002</v>
       </c>
-      <c r="K64" s="3">
+      <c r="L64" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3">
+      <c r="N64" s="3">
+        <v>15</v>
+      </c>
+      <c r="O64" s="3">
         <v>12.5</v>
       </c>
-      <c r="M64" s="3">
+      <c r="P64" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q64" s="3">
         <v>28.599999999999998</v>
       </c>
-      <c r="N64" s="3">
+      <c r="R64" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S64" s="3">
         <v>7.0000000000000009</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T64" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>99</v>
       </c>
@@ -4609,22 +5782,40 @@
         <v>11.4</v>
       </c>
       <c r="J65" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K65" s="3">
         <v>15.6</v>
       </c>
-      <c r="K65" s="3">
+      <c r="L65" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M65" s="3">
         <v>10</v>
       </c>
-      <c r="L65" s="3">
+      <c r="N65" s="3">
+        <v>15</v>
+      </c>
+      <c r="O65" s="3">
         <v>14.299999999999999</v>
       </c>
-      <c r="M65" s="3">
+      <c r="P65" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q65" s="3">
         <v>28.599999999999998</v>
       </c>
-      <c r="N65" s="3">
+      <c r="R65" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S65" s="3">
         <v>17.100000000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T65" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>149</v>
       </c>
@@ -4653,22 +5844,40 @@
         <v>23.200000000000003</v>
       </c>
       <c r="J66" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K66" s="3">
         <v>18.899999999999999</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M66" s="3">
         <v>10</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
+        <v>15</v>
+      </c>
+      <c r="O66" s="3">
         <v>16.2</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q66" s="3">
         <v>33.300000000000004</v>
       </c>
-      <c r="N66" s="3">
+      <c r="R66" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S66" s="3">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T66" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>215</v>
       </c>
@@ -4697,22 +5906,40 @@
         <v>18.899999999999999</v>
       </c>
       <c r="J67" s="3">
-        <v>15</v>
+        <v>20.8</v>
       </c>
       <c r="K67" s="3">
+        <v>15</v>
+      </c>
+      <c r="L67" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M67" s="3">
         <v>25</v>
       </c>
-      <c r="L67" s="3">
+      <c r="N67" s="3">
+        <v>15</v>
+      </c>
+      <c r="O67" s="3">
         <v>31</v>
       </c>
-      <c r="M67" s="3">
+      <c r="P67" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q67" s="3">
         <v>0</v>
       </c>
-      <c r="N67" s="3">
+      <c r="R67" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S67" s="3">
         <v>23.1</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T67" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>255</v>
       </c>
@@ -4741,22 +5968,40 @@
         <v>22.2</v>
       </c>
       <c r="J68" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K68" s="3">
         <v>31.8</v>
       </c>
-      <c r="K68" s="3">
+      <c r="L68" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M68" s="3">
         <v>36.799999999999997</v>
       </c>
-      <c r="L68" s="3">
+      <c r="N68" s="3">
+        <v>15</v>
+      </c>
+      <c r="O68" s="3">
         <v>26.8</v>
       </c>
-      <c r="M68" s="3">
+      <c r="P68" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q68" s="3">
         <v>27.800000000000004</v>
       </c>
-      <c r="N68" s="3">
+      <c r="R68" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S68" s="3">
         <v>40.799999999999997</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T68" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>175</v>
       </c>
@@ -4785,22 +6030,40 @@
         <v>31.7</v>
       </c>
       <c r="J69" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K69" s="3">
         <v>15.9</v>
       </c>
-      <c r="K69" s="3">
+      <c r="L69" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M69" s="3">
         <v>7.7</v>
       </c>
-      <c r="L69" s="3">
+      <c r="N69" s="3">
+        <v>15</v>
+      </c>
+      <c r="O69" s="3">
         <v>11.600000000000001</v>
       </c>
-      <c r="M69" s="3">
+      <c r="P69" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3">
+      <c r="R69" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S69" s="3">
         <v>44.4</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T69" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -4829,22 +6092,40 @@
         <v>8.2000000000000011</v>
       </c>
       <c r="J70" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K70" s="3">
         <v>5.4</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
+        <v>15</v>
+      </c>
+      <c r="O70" s="3">
         <v>16.400000000000002</v>
       </c>
-      <c r="M70" s="3">
+      <c r="P70" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q70" s="3">
         <v>12.1</v>
       </c>
-      <c r="N70" s="3">
+      <c r="R70" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S70" s="3">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T70" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>112</v>
       </c>
@@ -4873,22 +6154,40 @@
         <v>11.3</v>
       </c>
       <c r="J71" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K71" s="3">
         <v>11.5</v>
       </c>
-      <c r="K71" s="3">
+      <c r="L71" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M71" s="3">
         <v>13.8</v>
       </c>
-      <c r="L71" s="3">
+      <c r="N71" s="3">
+        <v>15</v>
+      </c>
+      <c r="O71" s="3">
         <v>7.5</v>
       </c>
-      <c r="M71" s="3">
+      <c r="P71" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q71" s="3">
         <v>16.7</v>
       </c>
-      <c r="N71" s="3">
+      <c r="R71" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S71" s="3">
         <v>1.4000000000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T71" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -4917,22 +6216,40 @@
         <v>33.1</v>
       </c>
       <c r="J72" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K72" s="3">
         <v>27.500000000000004</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M72" s="3">
         <v>33.300000000000004</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
+        <v>15</v>
+      </c>
+      <c r="O72" s="3">
         <v>31.6</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q72" s="3">
         <v>46.300000000000004</v>
       </c>
-      <c r="N72" s="3">
+      <c r="R72" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S72" s="3">
         <v>52.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T72" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>229</v>
       </c>
@@ -4961,22 +6278,40 @@
         <v>21.6</v>
       </c>
       <c r="J73" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K73" s="3">
         <v>19.7</v>
       </c>
-      <c r="K73" s="3">
+      <c r="L73" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3">
+      <c r="N73" s="3">
+        <v>15</v>
+      </c>
+      <c r="O73" s="3">
         <v>16.100000000000001</v>
       </c>
-      <c r="M73" s="3">
+      <c r="P73" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q73" s="3">
         <v>20.5</v>
       </c>
-      <c r="N73" s="3">
+      <c r="R73" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S73" s="3">
         <v>29.299999999999997</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T73" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>122</v>
       </c>
@@ -5005,22 +6340,40 @@
         <v>11.200000000000001</v>
       </c>
       <c r="J74" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K74" s="3">
         <v>8.6</v>
       </c>
-      <c r="K74" s="3">
+      <c r="L74" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3">
+      <c r="N74" s="3">
+        <v>15</v>
+      </c>
+      <c r="O74" s="3">
         <v>16.7</v>
       </c>
-      <c r="M74" s="3">
+      <c r="P74" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q74" s="3">
         <v>9.5</v>
       </c>
-      <c r="N74" s="3">
+      <c r="R74" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S74" s="3">
         <v>5.6000000000000005</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T74" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>161</v>
       </c>
@@ -5049,22 +6402,40 @@
         <v>8.6</v>
       </c>
       <c r="J75" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K75" s="3">
         <v>9.9</v>
       </c>
-      <c r="K75" s="3">
-        <v>0</v>
-      </c>
       <c r="L75" s="3">
-        <v>19</v>
+        <v>16.3</v>
       </c>
       <c r="M75" s="3">
         <v>0</v>
       </c>
       <c r="N75" s="3">
+        <v>15</v>
+      </c>
+      <c r="O75" s="3">
+        <v>19</v>
+      </c>
+      <c r="P75" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S75" s="3">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T75" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>183</v>
       </c>
@@ -5093,22 +6464,40 @@
         <v>18.099999999999998</v>
       </c>
       <c r="J76" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K76" s="3">
         <v>14.399999999999999</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M76" s="3">
         <v>21.099999999999998</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
+        <v>15</v>
+      </c>
+      <c r="O76" s="3">
         <v>14.299999999999999</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q76" s="3">
         <v>20</v>
       </c>
-      <c r="N76" s="3">
+      <c r="R76" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S76" s="3">
         <v>10.299999999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T76" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>185</v>
       </c>
@@ -5137,22 +6526,40 @@
         <v>20.200000000000003</v>
       </c>
       <c r="J77" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K77" s="3">
         <v>21.9</v>
       </c>
-      <c r="K77" s="3">
+      <c r="L77" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M77" s="3">
         <v>16.7</v>
       </c>
-      <c r="L77" s="3">
+      <c r="N77" s="3">
+        <v>15</v>
+      </c>
+      <c r="O77" s="3">
         <v>26.900000000000002</v>
       </c>
-      <c r="M77" s="3">
+      <c r="P77" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q77" s="3">
         <v>31.7</v>
       </c>
-      <c r="N77" s="3">
+      <c r="R77" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S77" s="3">
         <v>14.799999999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T77" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>39</v>
       </c>
@@ -5181,22 +6588,40 @@
         <v>5.8999999999999995</v>
       </c>
       <c r="J78" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K78" s="3">
         <v>7.1</v>
       </c>
-      <c r="K78" s="3">
+      <c r="L78" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M78" s="3">
         <v>0</v>
       </c>
-      <c r="L78" s="3">
+      <c r="N78" s="3">
+        <v>15</v>
+      </c>
+      <c r="O78" s="3">
         <v>9.1</v>
       </c>
-      <c r="M78" s="3">
+      <c r="P78" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q78" s="3">
         <v>33.300000000000004</v>
       </c>
-      <c r="N78" s="3">
+      <c r="R78" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S78" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T78" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>55</v>
       </c>
@@ -5225,19 +6650,37 @@
         <v>9.7000000000000011</v>
       </c>
       <c r="J79" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K79" s="3">
         <v>9.8000000000000007</v>
       </c>
-      <c r="K79" s="3">
+      <c r="L79" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M79" s="3">
         <v>0</v>
       </c>
-      <c r="L79" s="3">
+      <c r="N79" s="3">
+        <v>15</v>
+      </c>
+      <c r="O79" s="3">
         <v>37.5</v>
       </c>
-      <c r="N79" s="3">
+      <c r="P79" s="3">
+        <v>18</v>
+      </c>
+      <c r="R79" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S79" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T79" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>71</v>
       </c>
@@ -5266,19 +6709,37 @@
         <v>19</v>
       </c>
       <c r="J80" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K80" s="3">
         <v>11.200000000000001</v>
       </c>
-      <c r="K80" s="3">
+      <c r="L80" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M80" s="3">
         <v>16.7</v>
       </c>
-      <c r="L80" s="3">
+      <c r="N80" s="3">
+        <v>15</v>
+      </c>
+      <c r="O80" s="3">
         <v>11</v>
       </c>
-      <c r="N80" s="3">
+      <c r="P80" s="3">
+        <v>18</v>
+      </c>
+      <c r="R80" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S80" s="3">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T80" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>73</v>
       </c>
@@ -5307,22 +6768,40 @@
         <v>23.400000000000002</v>
       </c>
       <c r="J81" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K81" s="3">
         <v>6.2</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M81" s="3">
         <v>0</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
+        <v>15</v>
+      </c>
+      <c r="O81" s="3">
         <v>26.200000000000003</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q81" s="3">
         <v>33.300000000000004</v>
       </c>
-      <c r="N81" s="3">
+      <c r="R81" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S81" s="3">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T81" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>187</v>
       </c>
@@ -5351,22 +6830,40 @@
         <v>3.6999999999999997</v>
       </c>
       <c r="J82" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K82" s="3">
         <v>2.1999999999999997</v>
       </c>
-      <c r="K82" s="3">
+      <c r="L82" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M82" s="3">
         <v>0</v>
       </c>
-      <c r="L82" s="3">
+      <c r="N82" s="3">
+        <v>15</v>
+      </c>
+      <c r="O82" s="3">
         <v>3.2</v>
       </c>
-      <c r="M82" s="3">
+      <c r="P82" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q82" s="3">
         <v>16.7</v>
       </c>
-      <c r="N82" s="3">
+      <c r="R82" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S82" s="3">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T82" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>199</v>
       </c>
@@ -5395,22 +6892,40 @@
         <v>18.099999999999998</v>
       </c>
       <c r="J83" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K83" s="3">
         <v>5.3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
-        <v>8.3000000000000007</v>
+        <v>16.3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>15</v>
+      </c>
+      <c r="O83" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="P83" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S83" s="3">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T83" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>257</v>
       </c>
@@ -5439,22 +6954,40 @@
         <v>11.200000000000001</v>
       </c>
       <c r="J84" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K84" s="3">
         <v>10.6</v>
       </c>
-      <c r="K84" s="3">
+      <c r="L84" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M84" s="3">
         <v>17.399999999999999</v>
       </c>
-      <c r="L84" s="3">
+      <c r="N84" s="3">
+        <v>15</v>
+      </c>
+      <c r="O84" s="3">
         <v>3.4000000000000004</v>
       </c>
-      <c r="M84" s="3">
+      <c r="P84" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q84" s="3">
         <v>7.1</v>
       </c>
-      <c r="N84" s="3">
+      <c r="R84" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S84" s="3">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T84" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>277</v>
       </c>
@@ -5483,22 +7016,40 @@
         <v>6.7</v>
       </c>
       <c r="J85" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K85" s="3">
         <v>5</v>
       </c>
-      <c r="K85" s="3">
-        <v>0</v>
-      </c>
       <c r="L85" s="3">
-        <v>13.3</v>
+        <v>16.3</v>
       </c>
       <c r="M85" s="3">
         <v>0</v>
       </c>
       <c r="N85" s="3">
+        <v>15</v>
+      </c>
+      <c r="O85" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="P85" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S85" s="3">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T85" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>283</v>
       </c>
@@ -5527,22 +7078,40 @@
         <v>15.9</v>
       </c>
       <c r="J86" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K86" s="3">
         <v>4.8</v>
       </c>
-      <c r="K86" s="3">
+      <c r="L86" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3">
+      <c r="N86" s="3">
+        <v>15</v>
+      </c>
+      <c r="O86" s="3">
         <v>13.200000000000001</v>
       </c>
-      <c r="M86" s="3">
+      <c r="P86" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q86" s="3">
         <v>16</v>
       </c>
-      <c r="N86" s="3">
+      <c r="R86" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S86" s="3">
         <v>22.900000000000002</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T86" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -5571,22 +7140,40 @@
         <v>17.2</v>
       </c>
       <c r="J87" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K87" s="3">
         <v>12.9</v>
       </c>
-      <c r="K87" s="3">
+      <c r="L87" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3">
+      <c r="N87" s="3">
+        <v>15</v>
+      </c>
+      <c r="O87" s="3">
         <v>21.5</v>
       </c>
-      <c r="M87" s="3">
+      <c r="P87" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q87" s="3">
         <v>23.7</v>
       </c>
-      <c r="N87" s="3">
+      <c r="R87" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S87" s="3">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T87" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -5615,22 +7202,40 @@
         <v>20</v>
       </c>
       <c r="J88" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K88" s="3">
         <v>32.1</v>
       </c>
-      <c r="K88" s="3">
+      <c r="L88" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M88" s="3">
         <v>46.2</v>
       </c>
-      <c r="L88" s="3">
+      <c r="N88" s="3">
+        <v>15</v>
+      </c>
+      <c r="O88" s="3">
         <v>37.200000000000003</v>
       </c>
-      <c r="M88" s="3">
+      <c r="P88" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q88" s="3">
         <v>36.4</v>
       </c>
-      <c r="N88" s="3">
+      <c r="R88" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S88" s="3">
         <v>40.6</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T88" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>247</v>
       </c>
@@ -5659,22 +7264,40 @@
         <v>16.8</v>
       </c>
       <c r="J89" s="3">
-        <v>20.399999999999999</v>
+        <v>20.8</v>
       </c>
       <c r="K89" s="3">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="L89" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M89" s="3">
         <v>13.600000000000001</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
+        <v>15</v>
+      </c>
+      <c r="O89" s="3">
         <v>23.599999999999998</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q89" s="3">
         <v>15.8</v>
       </c>
-      <c r="N89" s="3">
+      <c r="R89" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S89" s="3">
         <v>49</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T89" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -5703,22 +7326,40 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="J90" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K90" s="3">
         <v>7.6</v>
       </c>
-      <c r="K90" s="3">
+      <c r="L90" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M90" s="3">
         <v>25</v>
       </c>
-      <c r="L90" s="3">
+      <c r="N90" s="3">
+        <v>15</v>
+      </c>
+      <c r="O90" s="3">
         <v>8.5</v>
       </c>
-      <c r="M90" s="3">
+      <c r="P90" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q90" s="3">
         <v>30.4</v>
       </c>
-      <c r="N90" s="3">
+      <c r="R90" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S90" s="3">
         <v>14.799999999999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T90" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -5747,22 +7388,40 @@
         <v>20.3</v>
       </c>
       <c r="J91" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K91" s="3">
         <v>14.899999999999999</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M91" s="3">
         <v>5.3</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
+        <v>15</v>
+      </c>
+      <c r="O91" s="3">
         <v>12.3</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3">
+      <c r="R91" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S91" s="3">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T91" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -5791,22 +7450,40 @@
         <v>13</v>
       </c>
       <c r="J92" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K92" s="3">
         <v>8.5</v>
       </c>
-      <c r="K92" s="3">
+      <c r="L92" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M92" s="3">
         <v>2.1</v>
       </c>
-      <c r="L92" s="3">
+      <c r="N92" s="3">
+        <v>15</v>
+      </c>
+      <c r="O92" s="3">
         <v>11.799999999999999</v>
       </c>
-      <c r="M92" s="3">
+      <c r="P92" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q92" s="3">
         <v>17.5</v>
       </c>
-      <c r="N92" s="3">
+      <c r="R92" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S92" s="3">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T92" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>102</v>
       </c>
@@ -5835,22 +7512,40 @@
         <v>23.9</v>
       </c>
       <c r="J93" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K93" s="3">
         <v>14.2</v>
       </c>
-      <c r="K93" s="3">
+      <c r="L93" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M93" s="3">
         <v>12.5</v>
       </c>
-      <c r="L93" s="3">
+      <c r="N93" s="3">
+        <v>15</v>
+      </c>
+      <c r="O93" s="3">
         <v>14.499999999999998</v>
       </c>
-      <c r="M93" s="3">
+      <c r="P93" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3">
+      <c r="R93" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S93" s="3">
         <v>17.100000000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T93" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>106</v>
       </c>
@@ -5879,22 +7574,40 @@
         <v>22.7</v>
       </c>
       <c r="J94" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K94" s="3">
         <v>13.8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M94" s="3">
         <v>14.299999999999999</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
+        <v>15</v>
+      </c>
+      <c r="O94" s="3">
         <v>18.099999999999998</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q94" s="3">
         <v>37.9</v>
       </c>
-      <c r="N94" s="3">
+      <c r="R94" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S94" s="3">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T94" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>179</v>
       </c>
@@ -5923,22 +7636,40 @@
         <v>14.6</v>
       </c>
       <c r="J95" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K95" s="3">
         <v>13.600000000000001</v>
       </c>
-      <c r="K95" s="3">
+      <c r="L95" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M95" s="3">
         <v>10</v>
       </c>
-      <c r="L95" s="3">
+      <c r="N95" s="3">
+        <v>15</v>
+      </c>
+      <c r="O95" s="3">
         <v>11.1</v>
       </c>
-      <c r="M95" s="3">
+      <c r="P95" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q95" s="3">
         <v>20</v>
       </c>
-      <c r="N95" s="3">
+      <c r="R95" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S95" s="3">
         <v>31.4</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T95" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>201</v>
       </c>
@@ -5967,22 +7698,40 @@
         <v>21.099999999999998</v>
       </c>
       <c r="J96" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K96" s="3">
         <v>16.2</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M96" s="3">
         <v>13.3</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
+        <v>15</v>
+      </c>
+      <c r="O96" s="3">
         <v>22.8</v>
       </c>
-      <c r="M96" s="3">
+      <c r="P96" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q96" s="3">
         <v>28.9</v>
       </c>
-      <c r="N96" s="3">
+      <c r="R96" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S96" s="3">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T96" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>217</v>
       </c>
@@ -6011,22 +7760,40 @@
         <v>35</v>
       </c>
       <c r="J97" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K97" s="3">
         <v>27.500000000000004</v>
       </c>
-      <c r="K97" s="3">
+      <c r="L97" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M97" s="3">
         <v>25.8</v>
       </c>
-      <c r="L97" s="3">
+      <c r="N97" s="3">
+        <v>15</v>
+      </c>
+      <c r="O97" s="3">
         <v>26.700000000000003</v>
       </c>
-      <c r="M97" s="3">
+      <c r="P97" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q97" s="3">
         <v>34.4</v>
       </c>
-      <c r="N97" s="3">
+      <c r="R97" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S97" s="3">
         <v>30.9</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T97" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -6055,22 +7822,40 @@
         <v>32.4</v>
       </c>
       <c r="J98" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K98" s="3">
         <v>29.7</v>
       </c>
-      <c r="K98" s="3">
+      <c r="L98" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M98" s="3">
         <v>30</v>
       </c>
-      <c r="L98" s="3">
+      <c r="N98" s="3">
+        <v>15</v>
+      </c>
+      <c r="O98" s="3">
         <v>45.800000000000004</v>
       </c>
-      <c r="M98" s="3">
+      <c r="P98" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q98" s="3">
         <v>50</v>
       </c>
-      <c r="N98" s="3">
+      <c r="R98" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S98" s="3">
         <v>64.7</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T98" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>249</v>
       </c>
@@ -6099,22 +7884,40 @@
         <v>25.8</v>
       </c>
       <c r="J99" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K99" s="3">
         <v>35.4</v>
       </c>
-      <c r="K99" s="3">
+      <c r="L99" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M99" s="3">
         <v>55.600000000000009</v>
       </c>
-      <c r="L99" s="3">
+      <c r="N99" s="3">
+        <v>15</v>
+      </c>
+      <c r="O99" s="3">
         <v>30</v>
       </c>
-      <c r="M99" s="3">
+      <c r="P99" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3">
+      <c r="R99" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S99" s="3">
         <v>35.699999999999996</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T99" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>43</v>
       </c>
@@ -6143,22 +7946,40 @@
         <v>9</v>
       </c>
       <c r="J100" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K100" s="3">
         <v>5.5</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M100" s="3">
         <v>40</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
+        <v>15</v>
+      </c>
+      <c r="O100" s="3">
         <v>9.1</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q100" s="3">
         <v>31.6</v>
       </c>
-      <c r="N100" s="3">
+      <c r="R100" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S100" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T100" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>97</v>
       </c>
@@ -6187,22 +8008,40 @@
         <v>23.3</v>
       </c>
       <c r="J101" s="3">
-        <v>18</v>
+        <v>20.8</v>
       </c>
       <c r="K101" s="3">
+        <v>18</v>
+      </c>
+      <c r="L101" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
+        <v>15</v>
+      </c>
+      <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3">
+      <c r="P101" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q101" s="3">
         <v>5.8999999999999995</v>
       </c>
-      <c r="N101" s="3">
+      <c r="R101" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S101" s="3">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T101" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>120</v>
       </c>
@@ -6231,22 +8070,40 @@
         <v>3.8</v>
       </c>
       <c r="J102" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K102" s="3">
         <v>5.4</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
-        <v>8.9</v>
+        <v>16.3</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>15</v>
+      </c>
+      <c r="O102" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="P102" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S102" s="3">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T102" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>151</v>
       </c>
@@ -6275,22 +8132,40 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="J103" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K103" s="3">
         <v>17.2</v>
       </c>
-      <c r="K103" s="3">
+      <c r="L103" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M103" s="3">
         <v>25</v>
       </c>
-      <c r="L103" s="3">
+      <c r="N103" s="3">
+        <v>15</v>
+      </c>
+      <c r="O103" s="3">
         <v>16.5</v>
       </c>
-      <c r="M103" s="3">
+      <c r="P103" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q103" s="3">
         <v>37.200000000000003</v>
       </c>
-      <c r="N103" s="3">
+      <c r="R103" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S103" s="3">
         <v>28.9</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T103" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>209</v>
       </c>
@@ -6319,22 +8194,40 @@
         <v>6.8000000000000007</v>
       </c>
       <c r="J104" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K104" s="3">
         <v>10.100000000000001</v>
       </c>
-      <c r="K104" s="3">
+      <c r="L104" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M104" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="L104" s="3">
+      <c r="N104" s="3">
+        <v>15</v>
+      </c>
+      <c r="O104" s="3">
         <v>13.3</v>
       </c>
-      <c r="M104" s="3">
+      <c r="P104" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q104" s="3">
         <v>21.099999999999998</v>
       </c>
-      <c r="N104" s="3">
+      <c r="R104" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S104" s="3">
         <v>7.0000000000000009</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T104" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>213</v>
       </c>
@@ -6363,22 +8256,40 @@
         <v>7.6</v>
       </c>
       <c r="J105" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K105" s="3">
         <v>10.100000000000001</v>
       </c>
-      <c r="K105" s="3">
-        <v>0</v>
-      </c>
       <c r="L105" s="3">
-        <v>11.200000000000001</v>
+        <v>16.3</v>
       </c>
       <c r="M105" s="3">
         <v>0</v>
       </c>
       <c r="N105" s="3">
+        <v>15</v>
+      </c>
+      <c r="O105" s="3">
+        <v>11.200000000000001</v>
+      </c>
+      <c r="P105" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q105" s="3">
+        <v>0</v>
+      </c>
+      <c r="R105" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S105" s="3">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T105" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>271</v>
       </c>
@@ -6407,22 +8318,40 @@
         <v>16.7</v>
       </c>
       <c r="J106" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K106" s="3">
         <v>2.9000000000000004</v>
       </c>
-      <c r="K106" s="3">
-        <v>0</v>
-      </c>
       <c r="L106" s="3">
-        <v>10</v>
+        <v>16.3</v>
       </c>
       <c r="M106" s="3">
         <v>0</v>
       </c>
       <c r="N106" s="3">
+        <v>15</v>
+      </c>
+      <c r="O106" s="3">
+        <v>10</v>
+      </c>
+      <c r="P106" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q106" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R106" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S106" s="3">
+        <v>0</v>
+      </c>
+      <c r="T106" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>289</v>
       </c>
@@ -6451,22 +8380,40 @@
         <v>6.8000000000000007</v>
       </c>
       <c r="J107" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K107" s="3">
         <v>11.3</v>
       </c>
-      <c r="K107" s="3">
+      <c r="L107" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M107" s="3">
         <v>0</v>
       </c>
-      <c r="L107" s="3">
+      <c r="N107" s="3">
+        <v>15</v>
+      </c>
+      <c r="O107" s="3">
         <v>15.9</v>
       </c>
-      <c r="M107" s="3">
+      <c r="P107" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q107" s="3">
         <v>7.7</v>
       </c>
-      <c r="N107" s="3">
+      <c r="R107" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S107" s="3">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T107" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>219</v>
       </c>
@@ -6495,22 +8442,40 @@
         <v>23.3</v>
       </c>
       <c r="J108" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K108" s="3">
         <v>17.2</v>
       </c>
-      <c r="K108" s="3">
-        <v>0</v>
-      </c>
       <c r="L108" s="3">
-        <v>5.8999999999999995</v>
+        <v>16.3</v>
       </c>
       <c r="M108" s="3">
         <v>0</v>
       </c>
       <c r="N108" s="3">
+        <v>15</v>
+      </c>
+      <c r="O108" s="3">
+        <v>5.8999999999999995</v>
+      </c>
+      <c r="P108" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q108" s="3">
+        <v>0</v>
+      </c>
+      <c r="R108" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S108" s="3">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T108" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>85</v>
       </c>
@@ -6539,22 +8504,40 @@
         <v>12.3</v>
       </c>
       <c r="J109" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K109" s="3">
         <v>13.200000000000001</v>
       </c>
-      <c r="K109" s="3">
+      <c r="L109" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M109" s="3">
         <v>0</v>
       </c>
-      <c r="L109" s="3">
+      <c r="N109" s="3">
+        <v>15</v>
+      </c>
+      <c r="O109" s="3">
         <v>15.6</v>
       </c>
-      <c r="M109" s="3">
+      <c r="P109" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q109" s="3">
         <v>32.1</v>
       </c>
-      <c r="N109" s="3">
+      <c r="R109" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S109" s="3">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T109" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>101</v>
       </c>
@@ -6583,22 +8566,40 @@
         <v>17.599999999999998</v>
       </c>
       <c r="J110" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K110" s="3">
         <v>19.100000000000001</v>
       </c>
-      <c r="K110" s="3">
+      <c r="L110" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M110" s="3">
         <v>38.5</v>
       </c>
-      <c r="L110" s="3">
+      <c r="N110" s="3">
+        <v>15</v>
+      </c>
+      <c r="O110" s="3">
         <v>24.7</v>
       </c>
-      <c r="M110" s="3">
+      <c r="P110" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q110" s="3">
         <v>54.500000000000007</v>
       </c>
-      <c r="N110" s="3">
+      <c r="R110" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S110" s="3">
         <v>45.6</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T110" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>67</v>
       </c>
@@ -6627,22 +8628,40 @@
         <v>7.9</v>
       </c>
       <c r="J111" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K111" s="3">
         <v>6</v>
       </c>
-      <c r="K111" s="3">
+      <c r="L111" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M111" s="3">
         <v>0</v>
       </c>
-      <c r="L111" s="3">
+      <c r="N111" s="3">
+        <v>15</v>
+      </c>
+      <c r="O111" s="3">
         <v>25.900000000000002</v>
       </c>
-      <c r="M111" s="3">
+      <c r="P111" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q111" s="3">
         <v>14.299999999999999</v>
       </c>
-      <c r="N111" s="3">
+      <c r="R111" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S111" s="3">
         <v>43.8</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T111" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>241</v>
       </c>
@@ -6671,22 +8690,40 @@
         <v>9.1</v>
       </c>
       <c r="J112" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K112" s="3">
         <v>6.8000000000000007</v>
       </c>
-      <c r="K112" s="3">
+      <c r="L112" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M112" s="3">
         <v>0</v>
       </c>
-      <c r="L112" s="3">
+      <c r="N112" s="3">
+        <v>15</v>
+      </c>
+      <c r="O112" s="3">
         <v>12.9</v>
       </c>
-      <c r="M112" s="3">
+      <c r="P112" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q112" s="3">
         <v>16.7</v>
       </c>
-      <c r="N112" s="3">
+      <c r="R112" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S112" s="3">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T112" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>19</v>
       </c>
@@ -6715,22 +8752,40 @@
         <v>28.199999999999996</v>
       </c>
       <c r="J113" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K113" s="3">
         <v>27.700000000000003</v>
       </c>
-      <c r="K113" s="3">
+      <c r="L113" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M113" s="3">
         <v>52</v>
       </c>
-      <c r="L113" s="3">
+      <c r="N113" s="3">
+        <v>15</v>
+      </c>
+      <c r="O113" s="3">
         <v>27.900000000000002</v>
       </c>
-      <c r="M113" s="3">
+      <c r="P113" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q113" s="3">
         <v>60</v>
       </c>
-      <c r="N113" s="3">
+      <c r="R113" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S113" s="3">
         <v>29.099999999999998</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T113" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>177</v>
       </c>
@@ -6759,22 +8814,40 @@
         <v>13.4</v>
       </c>
       <c r="J114" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K114" s="3">
         <v>8</v>
       </c>
-      <c r="K114" s="3">
+      <c r="L114" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M114" s="3">
         <v>0</v>
       </c>
-      <c r="L114" s="3">
+      <c r="N114" s="3">
+        <v>15</v>
+      </c>
+      <c r="O114" s="3">
         <v>17.5</v>
       </c>
-      <c r="M114" s="3">
+      <c r="P114" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q114" s="3">
         <v>14.299999999999999</v>
       </c>
-      <c r="N114" s="3">
+      <c r="R114" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S114" s="3">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T114" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>261</v>
       </c>
@@ -6803,22 +8876,40 @@
         <v>17.2</v>
       </c>
       <c r="J115" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K115" s="3">
         <v>16.100000000000001</v>
       </c>
-      <c r="K115" s="3">
+      <c r="L115" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M115" s="3">
         <v>0</v>
       </c>
-      <c r="L115" s="3">
+      <c r="N115" s="3">
+        <v>15</v>
+      </c>
+      <c r="O115" s="3">
         <v>16.7</v>
       </c>
-      <c r="M115" s="3">
+      <c r="P115" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q115" s="3">
         <v>22.2</v>
       </c>
-      <c r="N115" s="3">
+      <c r="R115" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S115" s="3">
         <v>48.1</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T115" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>45</v>
       </c>
@@ -6847,22 +8938,40 @@
         <v>9.5</v>
       </c>
       <c r="J116" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K116" s="3">
         <v>8.1</v>
       </c>
-      <c r="K116" s="3">
-        <v>0</v>
-      </c>
       <c r="L116" s="3">
-        <v>31.4</v>
+        <v>16.3</v>
       </c>
       <c r="M116" s="3">
         <v>0</v>
       </c>
       <c r="N116" s="3">
+        <v>15</v>
+      </c>
+      <c r="O116" s="3">
+        <v>31.4</v>
+      </c>
+      <c r="P116" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q116" s="3">
+        <v>0</v>
+      </c>
+      <c r="R116" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S116" s="3">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T116" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>83</v>
       </c>
@@ -6891,22 +9000,40 @@
         <v>16.2</v>
       </c>
       <c r="J117" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K117" s="3">
         <v>12.4</v>
       </c>
-      <c r="K117" s="3">
+      <c r="L117" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M117" s="3">
         <v>0</v>
       </c>
-      <c r="L117" s="3">
+      <c r="N117" s="3">
+        <v>15</v>
+      </c>
+      <c r="O117" s="3">
         <v>17.5</v>
       </c>
-      <c r="M117" s="3">
+      <c r="P117" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q117" s="3">
         <v>26.700000000000003</v>
       </c>
-      <c r="N117" s="3">
+      <c r="R117" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S117" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T117" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -6935,22 +9062,40 @@
         <v>22.3</v>
       </c>
       <c r="J118" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K118" s="3">
         <v>13.100000000000001</v>
       </c>
-      <c r="K118" s="3">
+      <c r="L118" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M118" s="3">
         <v>40</v>
       </c>
-      <c r="L118" s="3">
+      <c r="N118" s="3">
+        <v>15</v>
+      </c>
+      <c r="O118" s="3">
         <v>27.400000000000002</v>
       </c>
-      <c r="M118" s="3">
+      <c r="P118" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q118" s="3">
         <v>25</v>
       </c>
-      <c r="N118" s="3">
+      <c r="R118" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S118" s="3">
         <v>28.000000000000004</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T118" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>135</v>
       </c>
@@ -6979,22 +9124,40 @@
         <v>19.100000000000001</v>
       </c>
       <c r="J119" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K119" s="3">
         <v>15.5</v>
       </c>
-      <c r="K119" s="3">
+      <c r="L119" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M119" s="3">
         <v>10.7</v>
       </c>
-      <c r="L119" s="3">
+      <c r="N119" s="3">
+        <v>15</v>
+      </c>
+      <c r="O119" s="3">
         <v>14.000000000000002</v>
       </c>
-      <c r="M119" s="3">
+      <c r="P119" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q119" s="3">
         <v>26</v>
       </c>
-      <c r="N119" s="3">
+      <c r="R119" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S119" s="3">
         <v>17.599999999999998</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T119" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>191</v>
       </c>
@@ -7023,22 +9186,40 @@
         <v>19</v>
       </c>
       <c r="J120" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K120" s="3">
         <v>27.500000000000004</v>
       </c>
-      <c r="K120" s="3">
+      <c r="L120" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M120" s="3">
         <v>8.6</v>
       </c>
-      <c r="L120" s="3">
+      <c r="N120" s="3">
+        <v>15</v>
+      </c>
+      <c r="O120" s="3">
         <v>12.9</v>
       </c>
-      <c r="M120" s="3">
+      <c r="P120" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q120" s="3">
         <v>20.200000000000003</v>
       </c>
-      <c r="N120" s="3">
+      <c r="R120" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S120" s="3">
         <v>14.099999999999998</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T120" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>243</v>
       </c>
@@ -7067,22 +9248,40 @@
         <v>21.4</v>
       </c>
       <c r="J121" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K121" s="3">
         <v>15.6</v>
       </c>
-      <c r="K121" s="3">
+      <c r="L121" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M121" s="3">
         <v>6.9</v>
       </c>
-      <c r="L121" s="3">
+      <c r="N121" s="3">
+        <v>15</v>
+      </c>
+      <c r="O121" s="3">
         <v>22.6</v>
       </c>
-      <c r="M121" s="3">
+      <c r="P121" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q121" s="3">
         <v>29.799999999999997</v>
       </c>
-      <c r="N121" s="3">
+      <c r="R121" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S121" s="3">
         <v>29.9</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T121" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>263</v>
       </c>
@@ -7111,22 +9310,40 @@
         <v>22.8</v>
       </c>
       <c r="J122" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K122" s="3">
         <v>12.7</v>
       </c>
-      <c r="K122" s="3">
-        <v>0</v>
-      </c>
       <c r="L122" s="3">
-        <v>19.7</v>
+        <v>16.3</v>
       </c>
       <c r="M122" s="3">
         <v>0</v>
       </c>
       <c r="N122" s="3">
+        <v>15</v>
+      </c>
+      <c r="O122" s="3">
+        <v>19.7</v>
+      </c>
+      <c r="P122" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q122" s="3">
+        <v>0</v>
+      </c>
+      <c r="R122" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S122" s="3">
         <v>17.599999999999998</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T122" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>9</v>
       </c>
@@ -7155,19 +9372,37 @@
         <v>50.9</v>
       </c>
       <c r="J123" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K123" s="3">
         <v>51.7</v>
       </c>
-      <c r="K123" s="3">
+      <c r="L123" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M123" s="3">
         <v>42.9</v>
       </c>
-      <c r="L123" s="3">
+      <c r="N123" s="3">
+        <v>15</v>
+      </c>
+      <c r="O123" s="3">
         <v>42.1</v>
       </c>
-      <c r="N123" s="3">
+      <c r="P123" s="3">
+        <v>18</v>
+      </c>
+      <c r="R123" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S123" s="3">
         <v>33.300000000000004</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T123" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>231</v>
       </c>
@@ -7196,22 +9431,40 @@
         <v>22.6</v>
       </c>
       <c r="J124" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K124" s="3">
         <v>19.5</v>
       </c>
-      <c r="K124" s="3">
+      <c r="L124" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M124" s="3">
         <v>36.1</v>
       </c>
-      <c r="L124" s="3">
+      <c r="N124" s="3">
+        <v>15</v>
+      </c>
+      <c r="O124" s="3">
         <v>25.8</v>
       </c>
-      <c r="M124" s="3">
+      <c r="P124" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q124" s="3">
         <v>29.2</v>
       </c>
-      <c r="N124" s="3">
+      <c r="R124" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S124" s="3">
         <v>18.3</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T124" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>130</v>
       </c>
@@ -7240,22 +9493,40 @@
         <v>18.7</v>
       </c>
       <c r="J125" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K125" s="3">
         <v>22.1</v>
       </c>
-      <c r="K125" s="3">
+      <c r="L125" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M125" s="3">
         <v>25</v>
       </c>
-      <c r="L125" s="3">
+      <c r="N125" s="3">
+        <v>15</v>
+      </c>
+      <c r="O125" s="3">
         <v>20.100000000000001</v>
       </c>
-      <c r="M125" s="3">
+      <c r="P125" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q125" s="3">
         <v>30</v>
       </c>
-      <c r="N125" s="3">
+      <c r="R125" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S125" s="3">
         <v>26.200000000000003</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T125" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>223</v>
       </c>
@@ -7284,22 +9555,40 @@
         <v>18.899999999999999</v>
       </c>
       <c r="J126" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K126" s="3">
         <v>22.8</v>
       </c>
-      <c r="K126" s="3">
+      <c r="L126" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M126" s="3">
         <v>10.8</v>
       </c>
-      <c r="L126" s="3">
+      <c r="N126" s="3">
+        <v>15</v>
+      </c>
+      <c r="O126" s="3">
         <v>19.100000000000001</v>
       </c>
-      <c r="M126" s="3">
+      <c r="P126" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q126" s="3">
         <v>41.5</v>
       </c>
-      <c r="N126" s="3">
+      <c r="R126" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S126" s="3">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T126" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>227</v>
       </c>
@@ -7328,22 +9617,40 @@
         <v>17.7</v>
       </c>
       <c r="J127" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K127" s="3">
         <v>4.3999999999999995</v>
       </c>
-      <c r="K127" s="3">
+      <c r="L127" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M127" s="3">
         <v>7.7</v>
       </c>
-      <c r="L127" s="3">
+      <c r="N127" s="3">
+        <v>15</v>
+      </c>
+      <c r="O127" s="3">
         <v>12.1</v>
       </c>
-      <c r="M127" s="3">
+      <c r="P127" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q127" s="3">
         <v>43.2</v>
       </c>
-      <c r="N127" s="3">
+      <c r="R127" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S127" s="3">
         <v>25.900000000000002</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T127" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>285</v>
       </c>
@@ -7372,22 +9679,40 @@
         <v>18.600000000000001</v>
       </c>
       <c r="J128" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K128" s="3">
         <v>27.3</v>
       </c>
-      <c r="K128" s="3">
+      <c r="L128" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M128" s="3">
         <v>17.599999999999998</v>
       </c>
-      <c r="L128" s="3">
+      <c r="N128" s="3">
+        <v>15</v>
+      </c>
+      <c r="O128" s="3">
         <v>21.9</v>
       </c>
-      <c r="M128" s="3">
+      <c r="P128" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q128" s="3">
         <v>22.7</v>
       </c>
-      <c r="N128" s="3">
-        <v>20.8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R128" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S128" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="T128" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>61</v>
       </c>
@@ -7416,22 +9741,40 @@
         <v>0</v>
       </c>
       <c r="J129" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K129" s="3">
         <v>1.5</v>
       </c>
-      <c r="K129" s="3">
+      <c r="L129" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M129" s="3">
         <v>0</v>
       </c>
-      <c r="L129" s="3">
+      <c r="N129" s="3">
+        <v>15</v>
+      </c>
+      <c r="O129" s="3">
         <v>25.5</v>
       </c>
-      <c r="M129" s="3">
+      <c r="P129" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q129" s="3">
         <v>9.5</v>
       </c>
-      <c r="N129" s="3">
+      <c r="R129" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S129" s="3">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T129" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>93</v>
       </c>
@@ -7460,22 +9803,40 @@
         <v>26.3</v>
       </c>
       <c r="J130" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K130" s="3">
         <v>16.600000000000001</v>
       </c>
-      <c r="K130" s="3">
+      <c r="L130" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M130" s="3">
         <v>20</v>
       </c>
-      <c r="L130" s="3">
+      <c r="N130" s="3">
+        <v>15</v>
+      </c>
+      <c r="O130" s="3">
         <v>20.3</v>
       </c>
-      <c r="M130" s="3">
+      <c r="P130" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q130" s="3">
         <v>19.2</v>
       </c>
-      <c r="N130" s="3">
+      <c r="R130" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S130" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T130" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -7504,22 +9865,40 @@
         <v>15</v>
       </c>
       <c r="J131" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K131" s="3">
         <v>2.6</v>
       </c>
-      <c r="K131" s="3">
+      <c r="L131" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M131" s="3">
         <v>20</v>
       </c>
-      <c r="L131" s="3">
+      <c r="N131" s="3">
+        <v>15</v>
+      </c>
+      <c r="O131" s="3">
         <v>17.100000000000001</v>
       </c>
-      <c r="M131" s="3">
+      <c r="P131" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q131" s="3">
         <v>40</v>
       </c>
-      <c r="N131" s="3">
+      <c r="R131" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S131" s="3">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T131" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>165</v>
       </c>
@@ -7548,22 +9927,40 @@
         <v>14.499999999999998</v>
       </c>
       <c r="J132" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K132" s="3">
         <v>10.9</v>
       </c>
-      <c r="K132" s="3">
+      <c r="L132" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M132" s="3">
         <v>38.5</v>
       </c>
-      <c r="L132" s="3">
+      <c r="N132" s="3">
+        <v>15</v>
+      </c>
+      <c r="O132" s="3">
         <v>17.899999999999999</v>
       </c>
-      <c r="M132" s="3">
+      <c r="P132" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q132" s="3">
         <v>18.5</v>
       </c>
-      <c r="N132" s="3">
+      <c r="R132" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S132" s="3">
         <v>29.599999999999998</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T132" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>221</v>
       </c>
@@ -7592,22 +9989,40 @@
         <v>22</v>
       </c>
       <c r="J133" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K133" s="3">
         <v>18.099999999999998</v>
       </c>
-      <c r="K133" s="3">
+      <c r="L133" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M133" s="3">
         <v>15.4</v>
       </c>
-      <c r="L133" s="3">
+      <c r="N133" s="3">
+        <v>15</v>
+      </c>
+      <c r="O133" s="3">
         <v>21.4</v>
       </c>
-      <c r="M133" s="3">
+      <c r="P133" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q133" s="3">
         <v>18.2</v>
       </c>
-      <c r="N133" s="3">
+      <c r="R133" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S133" s="3">
         <v>17.599999999999998</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T133" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>251</v>
       </c>
@@ -7636,22 +10051,40 @@
         <v>38.1</v>
       </c>
       <c r="J134" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K134" s="3">
         <v>19.900000000000002</v>
       </c>
-      <c r="K134" s="3">
+      <c r="L134" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M134" s="3">
         <v>16.7</v>
       </c>
-      <c r="L134" s="3">
+      <c r="N134" s="3">
+        <v>15</v>
+      </c>
+      <c r="O134" s="3">
         <v>38.1</v>
       </c>
-      <c r="M134" s="3">
+      <c r="P134" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q134" s="3">
         <v>33.300000000000004</v>
       </c>
-      <c r="N134" s="3">
+      <c r="R134" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S134" s="3">
         <v>47.599999999999994</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T134" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>17</v>
       </c>
@@ -7680,22 +10113,40 @@
         <v>36.199999999999996</v>
       </c>
       <c r="J135" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K135" s="3">
         <v>21.5</v>
       </c>
-      <c r="K135" s="3">
+      <c r="L135" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M135" s="3">
         <v>50</v>
       </c>
-      <c r="L135" s="3">
+      <c r="N135" s="3">
+        <v>15</v>
+      </c>
+      <c r="O135" s="3">
         <v>44.4</v>
       </c>
-      <c r="M135" s="3">
+      <c r="P135" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q135" s="3">
         <v>0</v>
       </c>
-      <c r="N135" s="3">
+      <c r="R135" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S135" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T135" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>159</v>
       </c>
@@ -7724,22 +10175,40 @@
         <v>11.799999999999999</v>
       </c>
       <c r="J136" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K136" s="3">
         <v>6.1</v>
       </c>
-      <c r="K136" s="3">
+      <c r="L136" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M136" s="3">
         <v>10</v>
       </c>
-      <c r="L136" s="3">
+      <c r="N136" s="3">
+        <v>15</v>
+      </c>
+      <c r="O136" s="3">
         <v>7.1999999999999993</v>
       </c>
-      <c r="M136" s="3">
+      <c r="P136" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q136" s="3">
         <v>0</v>
       </c>
-      <c r="N136" s="3">
+      <c r="R136" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S136" s="3">
         <v>11.799999999999999</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T136" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>171</v>
       </c>
@@ -7768,22 +10237,40 @@
         <v>21.6</v>
       </c>
       <c r="J137" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K137" s="3">
         <v>16.600000000000001</v>
       </c>
-      <c r="K137" s="3">
+      <c r="L137" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M137" s="3">
         <v>12</v>
       </c>
-      <c r="L137" s="3">
+      <c r="N137" s="3">
+        <v>15</v>
+      </c>
+      <c r="O137" s="3">
         <v>22</v>
       </c>
-      <c r="M137" s="3">
+      <c r="P137" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q137" s="3">
         <v>33.300000000000004</v>
       </c>
-      <c r="N137" s="3">
+      <c r="R137" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S137" s="3">
         <v>19.400000000000002</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T137" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>265</v>
       </c>
@@ -7812,22 +10299,40 @@
         <v>15.7</v>
       </c>
       <c r="J138" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K138" s="3">
         <v>20.7</v>
       </c>
-      <c r="K138" s="3">
+      <c r="L138" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M138" s="3">
         <v>0</v>
       </c>
-      <c r="L138" s="3">
+      <c r="N138" s="3">
+        <v>15</v>
+      </c>
+      <c r="O138" s="3">
         <v>23.9</v>
       </c>
-      <c r="M138" s="3">
+      <c r="P138" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q138" s="3">
         <v>45.800000000000004</v>
       </c>
-      <c r="N138" s="3">
+      <c r="R138" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S138" s="3">
         <v>33.300000000000004</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T138" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>87</v>
       </c>
@@ -7856,19 +10361,37 @@
         <v>39.800000000000004</v>
       </c>
       <c r="J139" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K139" s="3">
         <v>13.900000000000002</v>
       </c>
-      <c r="K139" s="3">
+      <c r="L139" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M139" s="3">
         <v>0</v>
       </c>
-      <c r="L139" s="3">
+      <c r="N139" s="3">
+        <v>15</v>
+      </c>
+      <c r="O139" s="3">
         <v>28.599999999999998</v>
       </c>
-      <c r="N139" s="3">
+      <c r="P139" s="3">
+        <v>18</v>
+      </c>
+      <c r="R139" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S139" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T139" s="3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>237</v>
       </c>
@@ -7897,19 +10420,37 @@
         <v>34.799999999999997</v>
       </c>
       <c r="J140" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="K140" s="3">
         <v>20</v>
       </c>
-      <c r="K140" s="3">
+      <c r="L140" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="M140" s="3">
         <v>0</v>
       </c>
-      <c r="L140" s="3">
+      <c r="N140" s="3">
+        <v>15</v>
+      </c>
+      <c r="O140" s="3">
         <v>34.799999999999997</v>
       </c>
-      <c r="M140" s="3">
+      <c r="P140" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q140" s="3">
         <v>20</v>
       </c>
-      <c r="N140" s="3">
+      <c r="R140" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="S140" s="3">
         <v>28.599999999999998</v>
+      </c>
+      <c r="T140" s="3">
+        <v>20.399999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data_tools/input/data.xlsx
+++ b/data_tools/input/data.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhoyer\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="1440" windowWidth="32025" windowHeight="25440" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="national_look" sheetId="1" r:id="rId1"/>
@@ -19,13 +14,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">local_lookup!$A$1:$T$140</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -952,9 +947,6 @@
     <t>GA</t>
   </si>
   <si>
-    <t>HA</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -1103,6 +1095,9 @@
   </si>
   <si>
     <t>national_psychology</t>
+  </si>
+  <si>
+    <t>HI</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1456,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1475,15 +1470,15 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1497,7 +1492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1529,17 +1524,17 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1559,7 +1554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1573,13 +1568,13 @@
         <v>43.4</v>
       </c>
       <c r="E2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F2">
         <v>51.7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1587,19 +1582,19 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D3">
         <v>34.200000000000003</v>
       </c>
       <c r="E3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F3">
         <v>64.7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1607,19 +1602,19 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D4">
         <v>32.200000000000003</v>
       </c>
       <c r="E4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F4">
         <v>52.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1633,13 +1628,13 @@
         <v>31.900000000000002</v>
       </c>
       <c r="E5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F5">
         <v>39.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1647,19 +1642,19 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D6">
         <v>31.3</v>
       </c>
       <c r="E6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F6">
         <v>44.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1667,19 +1662,19 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D7">
         <v>31.1</v>
       </c>
       <c r="E7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F7">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1687,19 +1682,19 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D8">
         <v>30.9</v>
       </c>
       <c r="E8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F8">
         <v>46.2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1713,13 +1708,13 @@
         <v>30.7</v>
       </c>
       <c r="E9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F9">
         <v>44.800000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1733,13 +1728,13 @@
         <v>30.3</v>
       </c>
       <c r="E10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F10">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1747,13 +1742,13 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D11">
         <v>29.5</v>
       </c>
       <c r="E11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F11">
         <v>87.1</v>
@@ -1774,30 +1769,30 @@
   <dimension ref="A1:T140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" style="3" customWidth="1"/>
-    <col min="11" max="12" width="8.85546875" style="3"/>
-    <col min="13" max="13" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" style="3" customWidth="1"/>
-    <col min="15" max="16" width="8.85546875" style="3"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.1640625" style="3" customWidth="1"/>
+    <col min="11" max="12" width="8.83203125" style="3"/>
+    <col min="13" max="13" width="17.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5" style="3" customWidth="1"/>
+    <col min="15" max="16" width="8.83203125" style="3"/>
     <col min="17" max="17" width="18" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" style="3" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" style="3"/>
+    <col min="19" max="19" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="9" customFormat="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1814,7 +1809,7 @@
         <v>30</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>2</v>
@@ -1826,40 +1821,40 @@
         <v>31</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>32</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>33</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>34</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>35</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>36</v>
       </c>
       <c r="T1" s="17" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1921,7 +1916,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1983,7 +1978,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>267</v>
       </c>
@@ -2042,7 +2037,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -2104,7 +2099,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>193</v>
       </c>
@@ -2166,7 +2161,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>211</v>
       </c>
@@ -2228,7 +2223,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -2290,7 +2285,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -2352,7 +2347,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>132</v>
       </c>
@@ -2414,7 +2409,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -2476,7 +2471,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -2538,7 +2533,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>155</v>
       </c>
@@ -2600,7 +2595,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2662,7 +2657,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>195</v>
       </c>
@@ -2724,7 +2719,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>207</v>
       </c>
@@ -2786,7 +2781,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>233</v>
       </c>
@@ -2848,7 +2843,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>235</v>
       </c>
@@ -2910,7 +2905,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>114</v>
       </c>
@@ -2972,7 +2967,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>124</v>
       </c>
@@ -3034,7 +3029,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>275</v>
       </c>
@@ -3096,7 +3091,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>279</v>
       </c>
@@ -3158,7 +3153,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
         <v>291</v>
       </c>
@@ -3217,7 +3212,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -3279,7 +3274,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>169</v>
       </c>
@@ -3341,7 +3336,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
         <v>189</v>
       </c>
@@ -3403,7 +3398,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>203</v>
       </c>
@@ -3465,7 +3460,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>259</v>
       </c>
@@ -3527,7 +3522,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>281</v>
       </c>
@@ -3589,7 +3584,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -3651,7 +3646,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -3713,7 +3708,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -3775,7 +3770,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>205</v>
       </c>
@@ -3783,7 +3778,7 @@
         <v>206</v>
       </c>
       <c r="C33" t="s">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="D33" s="16">
         <v>14708</v>
@@ -3834,7 +3829,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -3842,7 +3837,7 @@
         <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D34" s="16">
         <v>15570</v>
@@ -3896,7 +3891,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -3904,7 +3899,7 @@
         <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D35" s="16">
         <v>15353</v>
@@ -3958,7 +3953,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -3966,7 +3961,7 @@
         <v>105</v>
       </c>
       <c r="C36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D36" s="16">
         <v>19540</v>
@@ -4020,7 +4015,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>133</v>
       </c>
@@ -4028,7 +4023,7 @@
         <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D37" s="16">
         <v>55529</v>
@@ -4082,7 +4077,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -4090,7 +4085,7 @@
         <v>148</v>
       </c>
       <c r="C38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D38" s="16">
         <v>43274</v>
@@ -4144,7 +4139,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>163</v>
       </c>
@@ -4152,7 +4147,7 @@
         <v>164</v>
       </c>
       <c r="C39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D39" s="16">
         <v>24930</v>
@@ -4206,7 +4201,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>139</v>
       </c>
@@ -4214,7 +4209,7 @@
         <v>140</v>
       </c>
       <c r="C40" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D40" s="16">
         <v>54731</v>
@@ -4268,7 +4263,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>197</v>
       </c>
@@ -4276,7 +4271,7 @@
         <v>198</v>
       </c>
       <c r="C41" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D41" s="16">
         <v>32359</v>
@@ -4330,7 +4325,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -4338,7 +4333,7 @@
         <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D42" s="16">
         <v>18725</v>
@@ -4392,7 +4387,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
         <v>141</v>
       </c>
@@ -4400,7 +4395,7 @@
         <v>142</v>
       </c>
       <c r="C43" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D43" s="16">
         <v>31750</v>
@@ -4454,7 +4449,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -4462,7 +4457,7 @@
         <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D44" s="16">
         <v>34135</v>
@@ -4516,7 +4511,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
         <v>287</v>
       </c>
@@ -4524,7 +4519,7 @@
         <v>288</v>
       </c>
       <c r="C45" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D45" s="16">
         <v>17138</v>
@@ -4578,7 +4573,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
         <v>153</v>
       </c>
@@ -4586,7 +4581,7 @@
         <v>154</v>
       </c>
       <c r="C46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D46" s="16">
         <v>34140</v>
@@ -4640,7 +4635,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
         <v>157</v>
       </c>
@@ -4648,7 +4643,7 @@
         <v>158</v>
       </c>
       <c r="C47" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D47" s="16">
         <v>39707</v>
@@ -4702,7 +4697,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -4710,7 +4705,7 @@
         <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D48" s="16">
         <v>25300</v>
@@ -4764,7 +4759,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
         <v>239</v>
       </c>
@@ -4772,7 +4767,7 @@
         <v>240</v>
       </c>
       <c r="C49" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D49" s="16">
         <v>39812</v>
@@ -4826,7 +4821,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -4834,7 +4829,7 @@
         <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D50" s="16">
         <v>42627</v>
@@ -4888,7 +4883,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -4896,7 +4891,7 @@
         <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D51" s="16">
         <v>9214</v>
@@ -4947,7 +4942,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20">
       <c r="A52" t="s">
         <v>269</v>
       </c>
@@ -4955,7 +4950,7 @@
         <v>270</v>
       </c>
       <c r="C52" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D52" s="16">
         <v>87383</v>
@@ -5009,7 +5004,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20">
       <c r="A53" t="s">
         <v>273</v>
       </c>
@@ -5017,7 +5012,7 @@
         <v>274</v>
       </c>
       <c r="C53" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D53" s="16">
         <v>24191</v>
@@ -5071,7 +5066,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20">
       <c r="A54" t="s">
         <v>167</v>
       </c>
@@ -5079,7 +5074,7 @@
         <v>168</v>
       </c>
       <c r="C54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D54" s="16">
         <v>48763</v>
@@ -5133,7 +5128,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20">
       <c r="A55" t="s">
         <v>23</v>
       </c>
@@ -5195,7 +5190,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -5203,7 +5198,7 @@
         <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D56" s="16">
         <v>50741</v>
@@ -5257,7 +5252,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -5265,7 +5260,7 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D57" s="16">
         <v>21767</v>
@@ -5319,7 +5314,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20">
       <c r="A58" t="s">
         <v>108</v>
       </c>
@@ -5327,7 +5322,7 @@
         <v>109</v>
       </c>
       <c r="C58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D58" s="16">
         <v>40763</v>
@@ -5381,7 +5376,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20">
       <c r="A59" t="s">
         <v>143</v>
       </c>
@@ -5389,7 +5384,7 @@
         <v>144</v>
       </c>
       <c r="C59" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D59" s="16">
         <v>13041</v>
@@ -5443,7 +5438,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20">
       <c r="A60" t="s">
         <v>225</v>
       </c>
@@ -5451,7 +5446,7 @@
         <v>226</v>
       </c>
       <c r="C60" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D60" s="16">
         <v>23265</v>
@@ -5505,7 +5500,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20">
       <c r="A61" t="s">
         <v>173</v>
       </c>
@@ -5513,7 +5508,7 @@
         <v>174</v>
       </c>
       <c r="C61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D61" s="16">
         <v>72238</v>
@@ -5567,7 +5562,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20">
       <c r="A62" t="s">
         <v>253</v>
       </c>
@@ -5575,7 +5570,7 @@
         <v>254</v>
       </c>
       <c r="C62" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D62" s="16">
         <v>33773</v>
@@ -5629,7 +5624,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20">
       <c r="A63" t="s">
         <v>128</v>
       </c>
@@ -5637,7 +5632,7 @@
         <v>129</v>
       </c>
       <c r="C63" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D63" s="16">
         <v>47847</v>
@@ -5691,7 +5686,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20">
       <c r="A64" t="s">
         <v>145</v>
       </c>
@@ -5699,7 +5694,7 @@
         <v>146</v>
       </c>
       <c r="C64" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D64" s="16">
         <v>38039</v>
@@ -5753,7 +5748,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
         <v>99</v>
       </c>
@@ -5761,7 +5756,7 @@
         <v>100</v>
       </c>
       <c r="C65" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D65" s="16">
         <v>30608</v>
@@ -5815,7 +5810,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20">
       <c r="A66" t="s">
         <v>149</v>
       </c>
@@ -5823,7 +5818,7 @@
         <v>150</v>
       </c>
       <c r="C66" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D66" s="16">
         <v>33271</v>
@@ -5877,7 +5872,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20">
       <c r="A67" t="s">
         <v>215</v>
       </c>
@@ -5885,7 +5880,7 @@
         <v>216</v>
       </c>
       <c r="C67" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D67" s="16">
         <v>11620</v>
@@ -5939,7 +5934,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20">
       <c r="A68" t="s">
         <v>255</v>
       </c>
@@ -5947,7 +5942,7 @@
         <v>256</v>
       </c>
       <c r="C68" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D68" s="16">
         <v>45658</v>
@@ -6001,7 +5996,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20">
       <c r="A69" t="s">
         <v>175</v>
       </c>
@@ -6009,7 +6004,7 @@
         <v>176</v>
       </c>
       <c r="C69" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D69" s="16">
         <v>18714</v>
@@ -6063,7 +6058,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -6071,7 +6066,7 @@
         <v>50</v>
       </c>
       <c r="C70" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D70" s="16">
         <v>40653</v>
@@ -6125,7 +6120,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20">
       <c r="A71" t="s">
         <v>112</v>
       </c>
@@ -6133,7 +6128,7 @@
         <v>113</v>
       </c>
       <c r="C71" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D71" s="16">
         <v>65725</v>
@@ -6187,7 +6182,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -6195,7 +6190,7 @@
         <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D72" s="16">
         <v>42689</v>
@@ -6249,7 +6244,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20">
       <c r="A73" t="s">
         <v>229</v>
       </c>
@@ -6257,7 +6252,7 @@
         <v>230</v>
       </c>
       <c r="C73" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D73" s="16">
         <v>76063</v>
@@ -6311,7 +6306,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20">
       <c r="A74" t="s">
         <v>122</v>
       </c>
@@ -6319,7 +6314,7 @@
         <v>123</v>
       </c>
       <c r="C74" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D74" s="16">
         <v>20216</v>
@@ -6373,7 +6368,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20">
       <c r="A75" t="s">
         <v>161</v>
       </c>
@@ -6381,7 +6376,7 @@
         <v>162</v>
       </c>
       <c r="C75" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D75" s="16">
         <v>21750</v>
@@ -6435,7 +6430,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20">
       <c r="A76" t="s">
         <v>183</v>
       </c>
@@ -6443,7 +6438,7 @@
         <v>184</v>
       </c>
       <c r="C76" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D76" s="16">
         <v>39672</v>
@@ -6497,7 +6492,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20">
       <c r="A77" t="s">
         <v>185</v>
       </c>
@@ -6505,7 +6500,7 @@
         <v>186</v>
       </c>
       <c r="C77" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D77" s="16">
         <v>47254</v>
@@ -6559,7 +6554,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20">
       <c r="A78" t="s">
         <v>39</v>
       </c>
@@ -6567,7 +6562,7 @@
         <v>40</v>
       </c>
       <c r="C78" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D78" s="16">
         <v>30341</v>
@@ -6621,7 +6616,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20">
       <c r="A79" t="s">
         <v>55</v>
       </c>
@@ -6629,7 +6624,7 @@
         <v>56</v>
       </c>
       <c r="C79" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D79" s="16">
         <v>17431</v>
@@ -6680,7 +6675,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20">
       <c r="A80" t="s">
         <v>71</v>
       </c>
@@ -6688,7 +6683,7 @@
         <v>72</v>
       </c>
       <c r="C80" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D80" s="16">
         <v>25353</v>
@@ -6739,7 +6734,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20">
       <c r="A81" t="s">
         <v>73</v>
       </c>
@@ -6747,7 +6742,7 @@
         <v>74</v>
       </c>
       <c r="C81" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D81" s="16">
         <v>14055</v>
@@ -6801,7 +6796,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20">
       <c r="A82" t="s">
         <v>187</v>
       </c>
@@ -6809,7 +6804,7 @@
         <v>188</v>
       </c>
       <c r="C82" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D82" s="16">
         <v>44488</v>
@@ -6863,7 +6858,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20">
       <c r="A83" t="s">
         <v>199</v>
       </c>
@@ -6871,7 +6866,7 @@
         <v>200</v>
       </c>
       <c r="C83" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D83" s="16">
         <v>33696</v>
@@ -6925,7 +6920,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20">
       <c r="A84" t="s">
         <v>257</v>
       </c>
@@ -6933,7 +6928,7 @@
         <v>258</v>
       </c>
       <c r="C84" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D84" s="16">
         <v>44241</v>
@@ -6987,7 +6982,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20">
       <c r="A85" t="s">
         <v>277</v>
       </c>
@@ -6995,7 +6990,7 @@
         <v>278</v>
       </c>
       <c r="C85" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D85" s="16">
         <v>21061</v>
@@ -7049,7 +7044,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20">
       <c r="A86" t="s">
         <v>283</v>
       </c>
@@ -7057,7 +7052,7 @@
         <v>284</v>
       </c>
       <c r="C86" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D86" s="16">
         <v>43953</v>
@@ -7111,7 +7106,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -7119,7 +7114,7 @@
         <v>182</v>
       </c>
       <c r="C87" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D87" s="16">
         <v>37172</v>
@@ -7173,7 +7168,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -7181,7 +7176,7 @@
         <v>22</v>
       </c>
       <c r="C88" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D88" s="16">
         <v>26131</v>
@@ -7235,7 +7230,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20">
       <c r="A89" t="s">
         <v>247</v>
       </c>
@@ -7243,7 +7238,7 @@
         <v>248</v>
       </c>
       <c r="C89" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D89" s="16">
         <v>61449</v>
@@ -7297,7 +7292,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -7305,7 +7300,7 @@
         <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D90" s="16">
         <v>15651</v>
@@ -7359,7 +7354,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -7367,7 +7362,7 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D91" s="16">
         <v>40545</v>
@@ -7421,7 +7416,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -7429,7 +7424,7 @@
         <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D92" s="16">
         <v>81928</v>
@@ -7483,7 +7478,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20">
       <c r="A93" t="s">
         <v>102</v>
       </c>
@@ -7491,7 +7486,7 @@
         <v>103</v>
       </c>
       <c r="C93" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D93" s="16">
         <v>37736</v>
@@ -7545,7 +7540,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20">
       <c r="A94" t="s">
         <v>106</v>
       </c>
@@ -7553,7 +7548,7 @@
         <v>107</v>
       </c>
       <c r="C94" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D94" s="16">
         <v>26159</v>
@@ -7607,7 +7602,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20">
       <c r="A95" t="s">
         <v>179</v>
       </c>
@@ -7615,7 +7610,7 @@
         <v>180</v>
       </c>
       <c r="C95" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D95" s="16">
         <v>23567</v>
@@ -7669,7 +7664,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20">
       <c r="A96" t="s">
         <v>201</v>
       </c>
@@ -7677,7 +7672,7 @@
         <v>202</v>
       </c>
       <c r="C96" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D96" s="16">
         <v>38763</v>
@@ -7731,7 +7726,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20">
       <c r="A97" t="s">
         <v>217</v>
       </c>
@@ -7739,7 +7734,7 @@
         <v>218</v>
       </c>
       <c r="C97" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D97" s="16">
         <v>75690</v>
@@ -7793,7 +7788,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -7801,7 +7796,7 @@
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D98" s="16">
         <v>21078</v>
@@ -7855,7 +7850,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20">
       <c r="A99" t="s">
         <v>249</v>
       </c>
@@ -7863,7 +7858,7 @@
         <v>250</v>
       </c>
       <c r="C99" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D99" s="16">
         <v>11069</v>
@@ -7917,7 +7912,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20">
       <c r="A100" t="s">
         <v>43</v>
       </c>
@@ -7925,7 +7920,7 @@
         <v>44</v>
       </c>
       <c r="C100" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D100" s="16">
         <v>30541</v>
@@ -7979,7 +7974,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20">
       <c r="A101" t="s">
         <v>97</v>
       </c>
@@ -7987,7 +7982,7 @@
         <v>98</v>
       </c>
       <c r="C101" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D101" s="16">
         <v>9373</v>
@@ -8041,7 +8036,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20">
       <c r="A102" t="s">
         <v>120</v>
       </c>
@@ -8049,7 +8044,7 @@
         <v>121</v>
       </c>
       <c r="C102" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D102" s="16">
         <v>14888</v>
@@ -8103,7 +8098,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20">
       <c r="A103" t="s">
         <v>151</v>
       </c>
@@ -8111,7 +8106,7 @@
         <v>152</v>
       </c>
       <c r="C103" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D103" s="16">
         <v>54288</v>
@@ -8165,7 +8160,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20">
       <c r="A104" t="s">
         <v>209</v>
       </c>
@@ -8173,7 +8168,7 @@
         <v>210</v>
       </c>
       <c r="C104" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D104" s="16">
         <v>62197</v>
@@ -8227,7 +8222,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20">
       <c r="A105" t="s">
         <v>213</v>
       </c>
@@ -8235,7 +8230,7 @@
         <v>214</v>
       </c>
       <c r="C105" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D105" s="16">
         <v>57393</v>
@@ -8289,7 +8284,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20">
       <c r="A106" t="s">
         <v>271</v>
       </c>
@@ -8297,7 +8292,7 @@
         <v>272</v>
       </c>
       <c r="C106" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D106" s="16">
         <v>24323</v>
@@ -8351,7 +8346,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20">
       <c r="A107" t="s">
         <v>289</v>
       </c>
@@ -8359,7 +8354,7 @@
         <v>290</v>
       </c>
       <c r="C107" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D107" s="16">
         <v>28408</v>
@@ -8413,7 +8408,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20">
       <c r="A108" t="s">
         <v>219</v>
       </c>
@@ -8421,7 +8416,7 @@
         <v>220</v>
       </c>
       <c r="C108" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D108" s="16">
         <v>43359</v>
@@ -8475,7 +8470,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20">
       <c r="A109" t="s">
         <v>85</v>
       </c>
@@ -8483,7 +8478,7 @@
         <v>86</v>
       </c>
       <c r="C109" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D109" s="16">
         <v>48662</v>
@@ -8537,7 +8532,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20">
       <c r="A110" t="s">
         <v>101</v>
       </c>
@@ -8545,7 +8540,7 @@
         <v>100</v>
       </c>
       <c r="C110" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D110" s="16">
         <v>57331</v>
@@ -8599,7 +8594,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20">
       <c r="A111" t="s">
         <v>67</v>
       </c>
@@ -8607,7 +8602,7 @@
         <v>68</v>
       </c>
       <c r="C111" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D111" s="16">
         <v>13381</v>
@@ -8661,7 +8656,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20">
       <c r="A112" t="s">
         <v>241</v>
       </c>
@@ -8669,7 +8664,7 @@
         <v>242</v>
       </c>
       <c r="C112" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D112" s="16">
         <v>21456</v>
@@ -8723,7 +8718,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20">
       <c r="A113" t="s">
         <v>19</v>
       </c>
@@ -8731,7 +8726,7 @@
         <v>20</v>
       </c>
       <c r="C113" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D113" s="16">
         <v>57402</v>
@@ -8785,7 +8780,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20">
       <c r="A114" t="s">
         <v>177</v>
       </c>
@@ -8793,7 +8788,7 @@
         <v>178</v>
       </c>
       <c r="C114" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D114" s="16">
         <v>81397</v>
@@ -8847,7 +8842,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20">
       <c r="A115" t="s">
         <v>261</v>
       </c>
@@ -8855,7 +8850,7 @@
         <v>262</v>
       </c>
       <c r="C115" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D115" s="16">
         <v>132258</v>
@@ -8909,7 +8904,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20">
       <c r="A116" t="s">
         <v>45</v>
       </c>
@@ -8971,7 +8966,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20">
       <c r="A117" t="s">
         <v>83</v>
       </c>
@@ -9033,7 +9028,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -9095,7 +9090,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20">
       <c r="A119" t="s">
         <v>135</v>
       </c>
@@ -9157,7 +9152,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20">
       <c r="A120" t="s">
         <v>191</v>
       </c>
@@ -9219,7 +9214,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20">
       <c r="A121" t="s">
         <v>243</v>
       </c>
@@ -9281,7 +9276,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20">
       <c r="A122" t="s">
         <v>263</v>
       </c>
@@ -9343,7 +9338,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20">
       <c r="A123" t="s">
         <v>9</v>
       </c>
@@ -9402,7 +9397,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20">
       <c r="A124" t="s">
         <v>231</v>
       </c>
@@ -9410,7 +9405,7 @@
         <v>232</v>
       </c>
       <c r="C124" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D124" s="16">
         <v>29517</v>
@@ -9464,7 +9459,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20">
       <c r="A125" t="s">
         <v>130</v>
       </c>
@@ -9472,7 +9467,7 @@
         <v>131</v>
       </c>
       <c r="C125" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D125" s="16">
         <v>38401</v>
@@ -9526,7 +9521,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20">
       <c r="A126" t="s">
         <v>223</v>
       </c>
@@ -9534,7 +9529,7 @@
         <v>224</v>
       </c>
       <c r="C126" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D126" s="16">
         <v>69708</v>
@@ -9588,7 +9583,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20">
       <c r="A127" t="s">
         <v>227</v>
       </c>
@@ -9596,7 +9591,7 @@
         <v>228</v>
       </c>
       <c r="C127" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D127" s="16">
         <v>42131</v>
@@ -9650,7 +9645,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20">
       <c r="A128" t="s">
         <v>285</v>
       </c>
@@ -9658,7 +9653,7 @@
         <v>286</v>
       </c>
       <c r="C128" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D128" s="16">
         <v>21256</v>
@@ -9712,7 +9707,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20">
       <c r="A129" t="s">
         <v>61</v>
       </c>
@@ -9720,7 +9715,7 @@
         <v>62</v>
       </c>
       <c r="C129" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D129" s="16">
         <v>15471</v>
@@ -9774,7 +9769,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20">
       <c r="A130" t="s">
         <v>93</v>
       </c>
@@ -9782,7 +9777,7 @@
         <v>94</v>
       </c>
       <c r="C130" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D130" s="16">
         <v>25047</v>
@@ -9836,7 +9831,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -9844,7 +9839,7 @@
         <v>138</v>
       </c>
       <c r="C131" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D131" s="16">
         <v>28566</v>
@@ -9898,7 +9893,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20">
       <c r="A132" t="s">
         <v>165</v>
       </c>
@@ -9906,7 +9901,7 @@
         <v>166</v>
       </c>
       <c r="C132" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D132" s="16">
         <v>35985</v>
@@ -9960,7 +9955,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20">
       <c r="A133" t="s">
         <v>221</v>
       </c>
@@ -9968,7 +9963,7 @@
         <v>222</v>
       </c>
       <c r="C133" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D133" s="16">
         <v>67504</v>
@@ -10022,7 +10017,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20">
       <c r="A134" t="s">
         <v>251</v>
       </c>
@@ -10030,7 +10025,7 @@
         <v>252</v>
       </c>
       <c r="C134" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D134" s="16">
         <v>21432</v>
@@ -10084,7 +10079,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20">
       <c r="A135" t="s">
         <v>17</v>
       </c>
@@ -10092,7 +10087,7 @@
         <v>18</v>
       </c>
       <c r="C135" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D135" s="16">
         <v>7946</v>
@@ -10146,7 +10141,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20">
       <c r="A136" t="s">
         <v>159</v>
       </c>
@@ -10154,7 +10149,7 @@
         <v>160</v>
       </c>
       <c r="C136" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D136" s="16">
         <v>31479</v>
@@ -10208,7 +10203,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20">
       <c r="A137" t="s">
         <v>171</v>
       </c>
@@ -10216,7 +10211,7 @@
         <v>172</v>
       </c>
       <c r="C137" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D137" s="16">
         <v>55523</v>
@@ -10270,7 +10265,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20">
       <c r="A138" t="s">
         <v>265</v>
       </c>
@@ -10278,7 +10273,7 @@
         <v>266</v>
       </c>
       <c r="C138" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D138" s="16">
         <v>14532</v>
@@ -10332,7 +10327,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20">
       <c r="A139" t="s">
         <v>87</v>
       </c>
@@ -10340,7 +10335,7 @@
         <v>88</v>
       </c>
       <c r="C139" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D139" s="16">
         <v>14039</v>
@@ -10391,7 +10386,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20">
       <c r="A140" t="s">
         <v>237</v>
       </c>
@@ -10399,7 +10394,7 @@
         <v>238</v>
       </c>
       <c r="C140" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D140" s="16">
         <v>4105</v>

--- a/data_tools/input/data.xlsx
+++ b/data_tools/input/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="national_look" sheetId="1" r:id="rId1"/>
@@ -1070,9 +1070,6 @@
     <t>Physicians</t>
   </si>
   <si>
-    <t>Scheduler/Workflow Assts.</t>
-  </si>
-  <si>
     <t>Physician Assistants</t>
   </si>
   <si>
@@ -1098,6 +1095,9 @@
   </si>
   <si>
     <t>HI</t>
+  </si>
+  <si>
+    <t>Scheduler Assts.</t>
   </si>
 </sst>
 </file>
@@ -1456,7 +1456,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1520,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1628,7 +1628,7 @@
         <v>31.900000000000002</v>
       </c>
       <c r="E5" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="F5">
         <v>39.5</v>
@@ -1668,7 +1668,7 @@
         <v>31.1</v>
       </c>
       <c r="E7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F7">
         <v>60</v>
@@ -1688,7 +1688,7 @@
         <v>30.9</v>
       </c>
       <c r="E8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F8">
         <v>46.2</v>
@@ -1708,7 +1708,7 @@
         <v>30.7</v>
       </c>
       <c r="E9" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="F9">
         <v>44.800000000000004</v>
@@ -1728,7 +1728,7 @@
         <v>30.3</v>
       </c>
       <c r="E10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F10">
         <v>75</v>
@@ -1748,7 +1748,7 @@
         <v>29.5</v>
       </c>
       <c r="E11" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="F11">
         <v>87.1</v>
@@ -1768,7 +1768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -1821,37 +1821,37 @@
         <v>31</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>32</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>33</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>34</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>35</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>36</v>
       </c>
       <c r="T1" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -3778,7 +3778,7 @@
         <v>206</v>
       </c>
       <c r="C33" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D33" s="16">
         <v>14708</v>
